--- a/File Naming Tool.xlsx
+++ b/File Naming Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Google Drive\LaunchSchool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F0AD4-7432-4463-9C2D-587CFAD04C25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B239AFF-A133-4B13-A119-F33B00B02A5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{C3B8B670-4DBA-4CAF-91B9-F79D6235264A}"/>
+    <workbookView xWindow="4500" yWindow="1215" windowWidth="21600" windowHeight="11325" xr2:uid="{C3B8B670-4DBA-4CAF-91B9-F79D6235264A}"/>
   </bookViews>
   <sheets>
     <sheet name="RB101 Small Problems" sheetId="1" r:id="rId1"/>
@@ -31,37 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="168">
-  <si>
-    <t>How old is Teddy?</t>
-  </si>
-  <si>
-    <t>How big is the room?</t>
-  </si>
-  <si>
-    <t>Tip calculator</t>
-  </si>
-  <si>
-    <t>When will I Retire?</t>
-  </si>
-  <si>
-    <t>Greeting a user</t>
-  </si>
-  <si>
-    <t>Odd Numbers</t>
-  </si>
-  <si>
-    <t>Even Numbers</t>
-  </si>
-  <si>
-    <t>Sum or Product of Consecutive Integers</t>
-  </si>
-  <si>
-    <t>String Assignment</t>
-  </si>
-  <si>
-    <t>Mutation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="165">
   <si>
     <t>1_</t>
   </si>
@@ -96,216 +66,6 @@
     <t>11_</t>
   </si>
   <si>
-    <t>Class and Instance Methods</t>
-  </si>
-  <si>
-    <t>Optional Arguments Redux</t>
-  </si>
-  <si>
-    <t>Default Arguments in the Middle</t>
-  </si>
-  <si>
-    <t>Mandatory Blocks</t>
-  </si>
-  <si>
-    <t>Multiple Signatures</t>
-  </si>
-  <si>
-    <t>Keyword Arguments</t>
-  </si>
-  <si>
-    <t>Parent Class</t>
-  </si>
-  <si>
-    <t>Included Modules</t>
-  </si>
-  <si>
-    <t>Down the Rabbit Hole</t>
-  </si>
-  <si>
-    <t>Repeat Yourself</t>
-  </si>
-  <si>
-    <t>Odd</t>
-  </si>
-  <si>
-    <t>List of Digits</t>
-  </si>
-  <si>
-    <t>How Many?</t>
-  </si>
-  <si>
-    <t>Reverse It (Part 1)</t>
-  </si>
-  <si>
-    <t>Reverse It (Part 2)</t>
-  </si>
-  <si>
-    <t>Stringy Strings</t>
-  </si>
-  <si>
-    <t>Array Average</t>
-  </si>
-  <si>
-    <t>Sum of Digits</t>
-  </si>
-  <si>
-    <t>What's my Bonus?</t>
-  </si>
-  <si>
-    <t>Searching 101</t>
-  </si>
-  <si>
-    <t>Arithmetic Integer</t>
-  </si>
-  <si>
-    <t>Counting the Number of Characters</t>
-  </si>
-  <si>
-    <t>Multiplying Two Numbers</t>
-  </si>
-  <si>
-    <t>Squaring an Argument</t>
-  </si>
-  <si>
-    <t>Exclusive Or</t>
-  </si>
-  <si>
-    <t>Odd Lists</t>
-  </si>
-  <si>
-    <t>Palindromic Strings (Part 1)</t>
-  </si>
-  <si>
-    <t>Palindromic Strings (Part 2)</t>
-  </si>
-  <si>
-    <t>Palindromic Numbers</t>
-  </si>
-  <si>
-    <t>Short Long Short</t>
-  </si>
-  <si>
-    <t>What Century is That?</t>
-  </si>
-  <si>
-    <t>Leap Years (Part 1)</t>
-  </si>
-  <si>
-    <t>Leap Years (Part 2)</t>
-  </si>
-  <si>
-    <t>Multiples of 3 and 5</t>
-  </si>
-  <si>
-    <t>Running Totals</t>
-  </si>
-  <si>
-    <t>Convert a String to a Number!</t>
-  </si>
-  <si>
-    <t>Convert a String to a Signed Number!</t>
-  </si>
-  <si>
-    <t>Convert a Number to a String!</t>
-  </si>
-  <si>
-    <t>Convert a Signed Number to a String!</t>
-  </si>
-  <si>
-    <t>ASCII String Value</t>
-  </si>
-  <si>
-    <t>After Midnight (Part 1)</t>
-  </si>
-  <si>
-    <t>After Midnight (Part 2)</t>
-  </si>
-  <si>
-    <t>Letter Swap</t>
-  </si>
-  <si>
-    <t>Clean up the words</t>
-  </si>
-  <si>
-    <t>Letter Counter (Part 1)</t>
-  </si>
-  <si>
-    <t>Letter Counter (Part 2)</t>
-  </si>
-  <si>
-    <t>Alphabetical Numbers</t>
-  </si>
-  <si>
-    <t>ddaaiillyy ddoouubbllee</t>
-  </si>
-  <si>
-    <t>Bannerizer</t>
-  </si>
-  <si>
-    <t>Spin Me Around In Circles</t>
-  </si>
-  <si>
-    <t>Cute angles</t>
-  </si>
-  <si>
-    <t>Delete vowels</t>
-  </si>
-  <si>
-    <t>Fibonacci Number Location By Length</t>
-  </si>
-  <si>
-    <t>Reversed Arrays (Part 1)</t>
-  </si>
-  <si>
-    <t>Reversed Arrays (Part 2)</t>
-  </si>
-  <si>
-    <t>Combining Arrays</t>
-  </si>
-  <si>
-    <t>Halvsies</t>
-  </si>
-  <si>
-    <t>Find the Duplicate</t>
-  </si>
-  <si>
-    <t>Does My List Include This?</t>
-  </si>
-  <si>
-    <t>Right Triangles</t>
-  </si>
-  <si>
-    <t>Combine Two Lists</t>
-  </si>
-  <si>
-    <t>Lettercase Counter</t>
-  </si>
-  <si>
-    <t>Capitalize Words</t>
-  </si>
-  <si>
-    <t>Swap Case</t>
-  </si>
-  <si>
-    <t>Staggered Caps (Part 1)</t>
-  </si>
-  <si>
-    <t>Staggered Caps (Part 2)</t>
-  </si>
-  <si>
-    <t>Multiplicative Average</t>
-  </si>
-  <si>
-    <t>Multiply Lists</t>
-  </si>
-  <si>
-    <t>Multiply All Pairs</t>
-  </si>
-  <si>
-    <t>The End Is Near But Not Here</t>
-  </si>
-  <si>
     <t>Sum of Sums</t>
   </si>
   <si>
@@ -495,30 +255,12 @@
     <t>14_</t>
   </si>
   <si>
-    <t>Documentation Again</t>
-  </si>
-  <si>
     <t>Easy 1</t>
   </si>
   <si>
     <t>Easy 2</t>
   </si>
   <si>
-    <t>Easy 3</t>
-  </si>
-  <si>
-    <t>Easy 4</t>
-  </si>
-  <si>
-    <t>Easy 5</t>
-  </si>
-  <si>
-    <t>Easy 6</t>
-  </si>
-  <si>
-    <t>Easy 7</t>
-  </si>
-  <si>
     <t>Easy 8</t>
   </si>
   <si>
@@ -535,6 +277,255 @@
   </si>
   <si>
     <t>Debugging</t>
+  </si>
+  <si>
+    <t>OO Basics: Classes and Objects 1</t>
+  </si>
+  <si>
+    <t>OO Basics: Classes and Objects 2</t>
+  </si>
+  <si>
+    <t>OO Basics: Inheritance</t>
+  </si>
+  <si>
+    <t>OO Basics: Accessor Methods</t>
+  </si>
+  <si>
+    <t>Find the Class</t>
+  </si>
+  <si>
+    <t>Create the Class</t>
+  </si>
+  <si>
+    <t>Create the Object</t>
+  </si>
+  <si>
+    <t>What Are You?</t>
+  </si>
+  <si>
+    <t>Hello, Sophie! (Part 1)</t>
+  </si>
+  <si>
+    <t>Hello, Sophie! (Part 2)</t>
+  </si>
+  <si>
+    <t>Reader</t>
+  </si>
+  <si>
+    <t>Writer</t>
+  </si>
+  <si>
+    <t>Accessor</t>
+  </si>
+  <si>
+    <t>Walk the Cat</t>
+  </si>
+  <si>
+    <t>Generic Greeting (Part 1)</t>
+  </si>
+  <si>
+    <t>Hello, Chloe!</t>
+  </si>
+  <si>
+    <t>Identify Yourself (Part 1)</t>
+  </si>
+  <si>
+    <t>Generic Greeting (Part 2)</t>
+  </si>
+  <si>
+    <t>Counting Cats</t>
+  </si>
+  <si>
+    <t>Colorful Cat</t>
+  </si>
+  <si>
+    <t>Identify Yourself (Part 2)</t>
+  </si>
+  <si>
+    <t>Public Secret</t>
+  </si>
+  <si>
+    <t>Private Secret</t>
+  </si>
+  <si>
+    <t>Protected Secret</t>
+  </si>
+  <si>
+    <t>Inherited Year</t>
+  </si>
+  <si>
+    <t>Start the Engine (Part 1)</t>
+  </si>
+  <si>
+    <t>Only Pass the Year</t>
+  </si>
+  <si>
+    <t>Start the Engine (Part 2)</t>
+  </si>
+  <si>
+    <t>Towable (Part 1)</t>
+  </si>
+  <si>
+    <t>Towable (Part 2)</t>
+  </si>
+  <si>
+    <t>Method Lookup (Part 1)</t>
+  </si>
+  <si>
+    <t>Method Lookup (Part 2)</t>
+  </si>
+  <si>
+    <t>Method Lookup (Part 3)</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Reading and Writing</t>
+  </si>
+  <si>
+    <t>Choose the Right Method</t>
+  </si>
+  <si>
+    <t>Access Denied</t>
+  </si>
+  <si>
+    <t>Comparing Names</t>
+  </si>
+  <si>
+    <t>Who is Older?</t>
+  </si>
+  <si>
+    <t>Guaranteed Formatting</t>
+  </si>
+  <si>
+    <t>Prefix the Name</t>
+  </si>
+  <si>
+    <t>Avoid Mutation</t>
+  </si>
+  <si>
+    <t>Calculated Age</t>
+  </si>
+  <si>
+    <t>Unexpected Change</t>
+  </si>
+  <si>
+    <t>Banner Class</t>
+  </si>
+  <si>
+    <t>What's the Output?</t>
+  </si>
+  <si>
+    <t>Fix the Program - Books (Part 1)</t>
+  </si>
+  <si>
+    <t>Fix the Program - Books (Part 2)</t>
+  </si>
+  <si>
+    <t>Fix the Program - Persons</t>
+  </si>
+  <si>
+    <t>Fix the Program - Flight Data</t>
+  </si>
+  <si>
+    <t>Buggy Code - Car Mileage</t>
+  </si>
+  <si>
+    <t>Rectangles and Squares</t>
+  </si>
+  <si>
+    <t>Complete the Program - Cats!</t>
+  </si>
+  <si>
+    <t>Refactoring Vehicles</t>
+  </si>
+  <si>
+    <t>Fix the Program - Mailable</t>
+  </si>
+  <si>
+    <t>Fix the Program - Drivable</t>
+  </si>
+  <si>
+    <t>Complete The Program - Houses</t>
+  </si>
+  <si>
+    <t>Reverse Engineering</t>
+  </si>
+  <si>
+    <t>What Will This Do?</t>
+  </si>
+  <si>
+    <t>Comparing Wallets</t>
+  </si>
+  <si>
+    <t>Pet Shelter</t>
+  </si>
+  <si>
+    <t>Fix The Program - Expander</t>
+  </si>
+  <si>
+    <t>Moving</t>
+  </si>
+  <si>
+    <t>Nobility</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>Fixed Array</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Circular Queue</t>
+  </si>
+  <si>
+    <t>Number Guesser Part 1</t>
+  </si>
+  <si>
+    <t>Number Guesser Part 2</t>
+  </si>
+  <si>
+    <t>Highest and Lowest Ranking Cards</t>
+  </si>
+  <si>
+    <t>Deck of Cards</t>
+  </si>
+  <si>
+    <t>Poker!</t>
+  </si>
+  <si>
+    <t>Community Library</t>
+  </si>
+  <si>
+    <t>Animal Kingdom</t>
+  </si>
+  <si>
+    <t>Wish You Were Here</t>
+  </si>
+  <si>
+    <t>Employee Management</t>
+  </si>
+  <si>
+    <t>Files</t>
+  </si>
+  <si>
+    <t>Sorting Distances</t>
+  </si>
+  <si>
+    <t>Bank Balance</t>
+  </si>
+  <si>
+    <t>Task Manager</t>
+  </si>
+  <si>
+    <t>You've Got Mail!</t>
+  </si>
+  <si>
+    <t>Does it Rock or Not?</t>
   </si>
 </sst>
 </file>
@@ -565,7 +556,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,6 +575,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -598,7 +595,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -610,6 +607,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -925,2123 +926,2133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6CD41F-381F-429B-BA06-5048AE13F42A}">
-  <dimension ref="A1:F167"/>
+  <dimension ref="A2:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B134" workbookViewId="0">
-      <selection activeCell="F167" sqref="F167"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" t="str">
-        <f t="shared" ref="C1" si="0">A1&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B1," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>1_Documentation_Again</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="str">
-        <f>D1&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E1," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>1_Class_and_Instance_Methods</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B2,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <v>1_OO_Basics_Classes_and_Objects_1</v>
+      </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="F2" t="str">
-        <f t="shared" ref="F2:F65" si="1">D2&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E2," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>2_Optional_Arguments_Redux</v>
+        <f>D2&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E2," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Find_the_Class.rb</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" si="1"/>
-        <v>3_Default_Arguments_in_the_Middle</v>
+        <f t="shared" ref="F3:F12" si="0">D3&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E3," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>2_Create_the_Class.rb</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
-        <v>4_Mandatory_Blocks</v>
+        <f t="shared" si="0"/>
+        <v>3_Create_the_Object.rb</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>5_Multiple_Signatures</v>
+        <f t="shared" si="0"/>
+        <v>4_What_Are_You.rb</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>6_Keyword_Arguments</v>
+        <f t="shared" si="0"/>
+        <v>5_Hello,_Sophie_Part_1.rb</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>7_Parent_Class</v>
+        <f t="shared" si="0"/>
+        <v>6_Hello,_Sophie_Part_2.rb</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>8_Included_Modules</v>
+        <f t="shared" si="0"/>
+        <v>7_Reader.rb</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>9_Down_the_Rabbit_Hole</v>
+        <f t="shared" si="0"/>
+        <v>8_Writer.rb</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>10_</v>
+        <f t="shared" si="0"/>
+        <v>9_Accessor.rb</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" ref="C13" si="2">A13&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B13," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>2_Easy_1</v>
-      </c>
-      <c r="D13" t="s">
+        <f t="shared" si="0"/>
+        <v>10_Walk_the_Cat.rb</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>1_Repeat_Yourself</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>11_.rb</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" t="str">
+        <f>A14&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B14,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <v>2_OO_Basics_Classes_and_Objects_2</v>
+      </c>
       <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>2_Odd</v>
+        <f t="shared" ref="F14:F24" si="1">D14&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E14," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Generic_Greeting_Part_1.rb</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>3_List_of_Digits</v>
+        <v>2_Hello,_Chloe.rb</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>4_How_Many</v>
+        <v>3_Identify_Yourself_Part_1.rb</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>5_Reverse_It_Part_1</v>
+        <v>4_Generic_Greeting_Part_2.rb</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>6_Reverse_It_Part_2</v>
+        <v>5_Counting_Cats.rb</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>7_Stringy_Strings</v>
+        <v>6_Colorful_Cat.rb</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>8_Array_Average</v>
+        <v>7_Identify_Yourself_Part_2.rb</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>9_Sum_of_Digits</v>
+        <v>8_Public_Secret.rb</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>10_What's_my_Bonus</v>
+        <v>9_Private_Secret.rb</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C25" t="str">
-        <f t="shared" ref="C25" si="3">A25&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B25," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>3_Easy_2</v>
-      </c>
-      <c r="D25" t="s">
+        <v>10_Protected_Secret.rb</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>11_.rb</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="str">
+        <f>A26&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B26,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <v>3_OO_Basics_Inheritance</v>
+      </c>
+      <c r="D26" t="s">
         <v>0</v>
       </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>1_How_old_is_Teddy</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
       <c r="E26" s="1" t="s">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>2_How_big_is_the_room</v>
+        <f t="shared" ref="F26:F36" si="2">D26&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E26," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Inherited_Year.rb</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>3_Tip_calculator</v>
+        <f t="shared" si="2"/>
+        <v>2_Start_the_Engine_Part_1.rb</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>4_When_will_I_Retire</v>
+        <f t="shared" si="2"/>
+        <v>3_Only_Pass_the_Year.rb</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>5_Greeting_a_user</v>
+        <f t="shared" si="2"/>
+        <v>4_Start_the_Engine_Part_2.rb</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>5</v>
+        <v>110</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" si="1"/>
-        <v>6_Odd_Numbers</v>
+        <f t="shared" si="2"/>
+        <v>5_Towable_Part_1.rb</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" si="1"/>
-        <v>7_Even_Numbers</v>
+        <f t="shared" si="2"/>
+        <v>6_Towable_Part_2.rb</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>7</v>
+        <v>112</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
-        <v>8_Sum_or_Product_of_Consecutive_Integers</v>
+        <f t="shared" si="2"/>
+        <v>7_Method_Lookup_Part_1.rb</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>8</v>
+        <v>113</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
-        <v>9_String_Assignment</v>
+        <f t="shared" si="2"/>
+        <v>8_Method_Lookup_Part_2.rb</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
-        <v>10_Mutation</v>
+        <f t="shared" si="2"/>
+        <v>9_Method_Lookup_Part_3.rb</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="F35" t="str">
-        <f t="shared" si="1"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C37" t="str">
-        <f t="shared" ref="C37" si="4">A37&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B37," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>4_Easy_3</v>
-      </c>
-      <c r="D37" t="s">
+        <f t="shared" si="2"/>
+        <v>10_Transportation.rb</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
         <v>10</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v>1_Searching_101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+      <c r="F36" t="str">
+        <f t="shared" si="2"/>
+        <v>11_.rb</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="str">
+        <f>A38&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B38,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <v>4_OO_Basics_Accessor_Methods</v>
+      </c>
       <c r="D38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>41</v>
+        <v>0</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>2_Arithmetic_Integer</v>
+        <f t="shared" ref="F38:F48" si="3">D38&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E38," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Reading_and_Writing.rb</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="1"/>
-        <v>3_Counting_the_Number_of_Characters</v>
+        <f t="shared" si="3"/>
+        <v>2_Choose_the_Right_Method.rb</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="F40" t="str">
-        <f t="shared" si="1"/>
-        <v>4_Multiplying_Two_Numbers</v>
+        <f t="shared" si="3"/>
+        <v>3_Access_Denied.rb</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" si="1"/>
-        <v>5_Squaring_an_Argument</v>
+        <f t="shared" si="3"/>
+        <v>4_Comparing_Names.rb</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="1"/>
-        <v>6_Exclusive_Or</v>
+        <f t="shared" si="3"/>
+        <v>5_Who_is_Older.rb</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="1"/>
-        <v>7_Odd_Lists</v>
+        <f t="shared" si="3"/>
+        <v>6_Guaranteed_Formatting.rb</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="1"/>
-        <v>8_Palindromic_Strings_Part_1</v>
+        <f t="shared" si="3"/>
+        <v>7_Prefix_the_Name.rb</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="1"/>
-        <v>9_Palindromic_Strings_Part_2</v>
+        <f t="shared" si="3"/>
+        <v>8_Avoid_Mutation.rb</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>49</v>
+        <v>124</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="1"/>
-        <v>10_Palindromic_Numbers</v>
+        <f t="shared" si="3"/>
+        <v>9_Calculated_Age.rb</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>125</v>
+      </c>
       <c r="F47" t="str">
-        <f t="shared" si="1"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C49" t="str">
-        <f t="shared" ref="C49" si="5">A49&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B49," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>5_Easy_4</v>
-      </c>
-      <c r="D49" t="s">
+        <f t="shared" si="3"/>
+        <v>10_Unexpected_Change.rb</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
         <v>10</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="1"/>
-        <v>1_Short_Long_Short</v>
+      <c r="E48" s="1"/>
+      <c r="F48" t="str">
+        <f t="shared" si="3"/>
+        <v>11_.rb</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" t="str">
+        <f>A50&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B50,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <v>5_Easy_1</v>
+      </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="1"/>
-        <v>2_What_Century_is_That</v>
+        <f t="shared" ref="F50:F60" si="4">D50&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E50," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Banner_Class.rb</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="1"/>
-        <v>3_Leap_Years_Part_1</v>
+        <f t="shared" si="4"/>
+        <v>2_What's_the_Output.rb</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>53</v>
+        <v>2</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="1"/>
-        <v>4_Leap_Years_Part_2</v>
+        <f t="shared" si="4"/>
+        <v>3_Fix_the_Program_-_Books_Part_1.rb</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>129</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="1"/>
-        <v>5_Multiples_of_3_and_5</v>
+        <f t="shared" si="4"/>
+        <v>4_Fix_the_Program_-_Books_Part_2.rb</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="1"/>
-        <v>6_Running_Totals</v>
+        <f t="shared" si="4"/>
+        <v>5_Fix_the_Program_-_Persons.rb</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="1"/>
-        <v>7_Convert_a_String_to_a_Number</v>
+        <f t="shared" si="4"/>
+        <v>6_Fix_the_Program_-_Flight_Data.rb</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="1"/>
-        <v>8_Convert_a_String_to_a_Signed_Number</v>
+        <f t="shared" si="4"/>
+        <v>7_Buggy_Code_-_Car_Mileage.rb</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="1"/>
-        <v>9_Convert_a_Number_to_a_String</v>
+        <f t="shared" si="4"/>
+        <v>8_Rectangles_and_Squares.rb</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="1"/>
-        <v>10_Convert_a_Signed_Number_to_a_String</v>
+        <f t="shared" si="4"/>
+        <v>9_Complete_the_Program_-_Cats.rb</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>20</v>
-      </c>
-      <c r="E59" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F59" t="str">
-        <f t="shared" si="1"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="C61" t="str">
-        <f t="shared" ref="C61" si="6">A61&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B61," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>6_Easy_5</v>
-      </c>
-      <c r="D61" t="s">
+        <f t="shared" si="4"/>
+        <v>10_Refactoring_Vehicles.rb</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
         <v>10</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="1"/>
-        <v>1_ASCII_String_Value</v>
+      <c r="E60" s="1"/>
+      <c r="F60" t="str">
+        <f t="shared" si="4"/>
+        <v>11_.rb</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="str">
+        <f>A62&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B62,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <v>6_Easy_2</v>
+      </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="1"/>
-        <v>2_After_Midnight_Part_1</v>
+        <f t="shared" ref="F62:F72" si="5">D62&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E62," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Fix_the_Program_-_Mailable.rb</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="1"/>
-        <v>3_After_Midnight_Part_2</v>
+        <f t="shared" si="5"/>
+        <v>2_Fix_the_Program_-_Drivable.rb</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>13</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>63</v>
+        <v>2</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>138</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="1"/>
-        <v>4_Letter_Swap</v>
+        <f t="shared" si="5"/>
+        <v>3_Complete_The_Program_-_Houses.rb</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>64</v>
+        <v>139</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="1"/>
-        <v>5_Clean_up_the_words</v>
+        <f t="shared" si="5"/>
+        <v>4_Reverse_Engineering.rb</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" ref="F66:F129" si="7">D66&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E66," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>6_Letter_Counter_Part_1</v>
+        <f t="shared" si="5"/>
+        <v>5_What_Will_This_Do.rb</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>66</v>
+        <v>141</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="7"/>
-        <v>7_Letter_Counter_Part_2</v>
+        <f t="shared" si="5"/>
+        <v>6_Comparing_Wallets.rb</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="7"/>
-        <v>8_Alphabetical_Numbers</v>
+        <f t="shared" si="5"/>
+        <v>7_Pet_Shelter.rb</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="7"/>
-        <v>9_ddaaiillyy_ddoouubbllee</v>
+        <f t="shared" si="5"/>
+        <v>8_Fix_The_Program_-_Expander.rb</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>69</v>
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="7"/>
-        <v>10_Bannerizer</v>
+        <f t="shared" si="5"/>
+        <v>9_Moving.rb</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>20</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="F71" t="str">
-        <f t="shared" si="7"/>
-        <v>11_Spin_Me_Around_In_Circles</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>16</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" t="str">
-        <f t="shared" ref="C73" si="8">A73&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B73," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>7_Easy_6</v>
-      </c>
-      <c r="D73" t="s">
+        <f t="shared" si="5"/>
+        <v>10_Nobility.rb</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
         <v>10</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F73" t="str">
-        <f t="shared" si="7"/>
-        <v>1_Cute_angles</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+      <c r="F72" t="str">
+        <f t="shared" si="5"/>
+        <v>11_.rb</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C74" t="str">
+        <f>A74&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B74,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <v>7_Medium_1</v>
+      </c>
       <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>72</v>
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="F74" t="str">
-        <f t="shared" si="7"/>
-        <v>2_Delete_vowels</v>
+        <f t="shared" ref="F74:F84" si="6">D74&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E74," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Privacy.rb</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>73</v>
+        <v>1</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="F75" t="str">
-        <f t="shared" si="7"/>
-        <v>3_Fibonacci_Number_Location_By_Length</v>
+        <f t="shared" si="6"/>
+        <v>2_Fixed_Array.rb</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="F76" t="str">
-        <f t="shared" si="7"/>
-        <v>4_Reversed_Arrays_Part_1</v>
+        <f t="shared" si="6"/>
+        <v>3_Students.rb</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>75</v>
+        <v>3</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="F77" t="str">
-        <f t="shared" si="7"/>
-        <v>5_Reversed_Arrays_Part_2</v>
+        <f t="shared" si="6"/>
+        <v>4_Circular_Queue.rb</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="F78" t="str">
-        <f t="shared" si="7"/>
-        <v>6_Combining_Arrays</v>
+        <f t="shared" si="6"/>
+        <v>5_Stack_Machine_Interpretation.rb</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="F79" t="str">
-        <f t="shared" si="7"/>
-        <v>7_Halvsies</v>
+        <f t="shared" si="6"/>
+        <v>6_Number_Guesser_Part_1.rb</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="F80" t="str">
-        <f t="shared" si="7"/>
-        <v>8_Find_the_Duplicate</v>
+        <f t="shared" si="6"/>
+        <v>7_Number_Guesser_Part_2.rb</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>79</v>
+        <v>152</v>
       </c>
       <c r="F81" t="str">
-        <f t="shared" si="7"/>
-        <v>9_Does_My_List_Include_This</v>
+        <f t="shared" si="6"/>
+        <v>8_Highest_and_Lowest_Ranking_Cards.rb</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>80</v>
+        <v>8</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="F82" t="str">
-        <f t="shared" si="7"/>
-        <v>10_Right_Triangles</v>
+        <f t="shared" si="6"/>
+        <v>9_Deck_of_Cards.rb</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="F83" t="str">
-        <f t="shared" si="7"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>17</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" t="str">
-        <f t="shared" ref="C85" si="9">A85&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B85," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>8_Easy_7</v>
-      </c>
-      <c r="D85" t="s">
+        <f t="shared" si="6"/>
+        <v>10_Poker.rb</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
         <v>10</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E84" s="2"/>
+      <c r="F84" t="str">
+        <f t="shared" si="6"/>
+        <v>11_.rb</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F85" t="str">
-        <f t="shared" si="7"/>
-        <v>1_Combine_Two_Lists</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C86" t="str">
+        <f>A86&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B86,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <v>8_Debugging</v>
+      </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>82</v>
+        <v>155</v>
       </c>
       <c r="F86" t="str">
-        <f t="shared" si="7"/>
-        <v>2_Lettercase_Counter</v>
+        <f t="shared" ref="F86:F96" si="7">D86&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E86," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Community_Library.rb</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="F87" t="str">
         <f t="shared" si="7"/>
-        <v>3_Capitalize_Words</v>
+        <v>2_Animal_Kingdom.rb</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c r="F88" t="str">
         <f t="shared" si="7"/>
-        <v>4_Swap_Case</v>
+        <v>3_Wish_You_Were_Here.rb</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>14</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>85</v>
+        <v>3</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="F89" t="str">
         <f t="shared" si="7"/>
-        <v>5_Staggered_Caps_Part_1</v>
+        <v>4_Employee_Management.rb</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>15</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>4</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="F90" t="str">
         <f t="shared" si="7"/>
-        <v>6_Staggered_Caps_Part_2</v>
+        <v>5_Files.rb</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>16</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>87</v>
+        <v>5</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="F91" t="str">
         <f t="shared" si="7"/>
-        <v>7_Multiplicative_Average</v>
+        <v>6_Sorting_Distances.rb</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F92" t="str">
         <f t="shared" si="7"/>
-        <v>8_Multiply_Lists</v>
+        <v>7_Bank_Balance.rb</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>89</v>
+        <v>7</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="F93" t="str">
         <f t="shared" si="7"/>
-        <v>9_Multiply_All_Pairs</v>
+        <v>8_Task_Manager.rb</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="F94" t="str">
         <f t="shared" si="7"/>
-        <v>10_The_End_Is_Near_But_Not_Here</v>
+        <v>9_You've_Got_Mail.rb</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>20</v>
-      </c>
-      <c r="E95" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>164</v>
+      </c>
       <c r="F95" t="str">
         <f t="shared" si="7"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" t="str">
-        <f t="shared" ref="C97" si="10">A97&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B97," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <v>10_Does_it_Rock_or_Not.rb</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" t="str">
+        <f t="shared" si="7"/>
+        <v>11_.rb</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" t="str">
+        <f>A98&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B98,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
         <v>9_Easy_8</v>
       </c>
-      <c r="D97" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F97" t="str">
-        <f t="shared" si="7"/>
-        <v>1_Sum_of_Sums</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="F98" t="str">
-        <f t="shared" si="7"/>
-        <v>2_Madlibs</v>
+        <f t="shared" ref="F98:F108" si="8">D98&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E98," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Sum_of_Sums.rb</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E99" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="F99" t="str">
-        <f t="shared" si="7"/>
-        <v>3_Leading_Substrings</v>
+        <f t="shared" si="8"/>
+        <v>2_Madlibs.rb</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="F100" t="str">
-        <f t="shared" si="7"/>
-        <v>4_All_Substrings</v>
+        <f t="shared" si="8"/>
+        <v>3_Leading_Substrings.rb</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
+        <v>3</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="F101" t="str">
-        <f t="shared" si="7"/>
-        <v>5_Palindromic_Substrings</v>
+        <f t="shared" si="8"/>
+        <v>4_All_Substrings.rb</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="F102" t="str">
-        <f t="shared" si="7"/>
-        <v>6_fizzbuzz</v>
+        <f t="shared" si="8"/>
+        <v>5_Palindromic_Substrings.rb</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
+        <v>5</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="F103" t="str">
-        <f t="shared" si="7"/>
-        <v>7_Double_Char_Part_1</v>
+        <f t="shared" si="8"/>
+        <v>6_fizzbuzz.rb</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="F104" t="str">
-        <f t="shared" si="7"/>
-        <v>8_Double_Char_Part_2</v>
+        <f t="shared" si="8"/>
+        <v>7_Double_Char_Part_1.rb</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
+        <v>7</v>
+      </c>
+      <c r="E105" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="F105" t="str">
-        <f t="shared" si="7"/>
-        <v>9_Convert_number_to_reversed_array_of_digits</v>
+        <f t="shared" si="8"/>
+        <v>8_Double_Char_Part_2.rb</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="F106" t="str">
-        <f t="shared" si="7"/>
-        <v>10_Get_The_Middle_Character</v>
+        <f t="shared" si="8"/>
+        <v>9_Convert_number_to_reversed_array_of_digits.rb</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E107" s="1"/>
       <c r="F107" t="str">
-        <f t="shared" si="7"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>19</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C109" t="str">
-        <f t="shared" ref="C109" si="11">A109&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B109," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <f t="shared" si="8"/>
+        <v>10_Get_The_Middle_Character.rb</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="1"/>
+      <c r="F108" t="str">
+        <f t="shared" si="8"/>
+        <v>11_.rb</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C110" t="str">
+        <f>A110&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B110,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
         <v>10_Easy_9</v>
       </c>
-      <c r="D109" t="s">
-        <v>10</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F109" t="str">
-        <f t="shared" si="7"/>
-        <v>1_Welcome_Stranger</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F110" t="str">
-        <f t="shared" si="7"/>
-        <v>2_Double_Doubles</v>
+        <f t="shared" ref="F110:F120" si="9">D110&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E110," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Welcome_Stranger.rb</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="F111" t="str">
-        <f t="shared" si="7"/>
-        <v>3_Always_Return_Negative</v>
+        <f t="shared" si="9"/>
+        <v>2_Double_Doubles.rb</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="F112" t="str">
-        <f t="shared" si="7"/>
-        <v>4_Counting_Up</v>
+        <f t="shared" si="9"/>
+        <v>3_Always_Return_Negative.rb</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="F113" t="str">
-        <f t="shared" si="7"/>
-        <v>5_Uppercase_Check</v>
+        <f t="shared" si="9"/>
+        <v>4_Counting_Up.rb</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="F114" t="str">
-        <f t="shared" si="7"/>
-        <v>6_How_long_are_you</v>
+        <f t="shared" si="9"/>
+        <v>5_Uppercase_Check.rb</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>16</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>107</v>
+        <v>5</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="F115" t="str">
-        <f t="shared" si="7"/>
-        <v>7_Name_Swapping</v>
+        <f t="shared" si="9"/>
+        <v>6_How_long_are_you.rb</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>108</v>
+        <v>6</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="F116" t="str">
-        <f t="shared" si="7"/>
-        <v>8_Sequence_Count</v>
+        <f t="shared" si="9"/>
+        <v>7_Name_Swapping.rb</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>18</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>109</v>
+        <v>7</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F117" t="str">
-        <f t="shared" si="7"/>
-        <v>9_Grade_book</v>
+        <f t="shared" si="9"/>
+        <v>8_Sequence_Count.rb</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>19</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>110</v>
+        <v>8</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="F118" t="str">
-        <f t="shared" si="7"/>
-        <v>10_Grocery_List</v>
+        <f t="shared" si="9"/>
+        <v>9_Grade_book.rb</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>20</v>
-      </c>
-      <c r="E119" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="F119" t="str">
-        <f t="shared" si="7"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>20</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C121" t="str">
-        <f t="shared" ref="C121" si="12">A121&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B121," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <f t="shared" si="9"/>
+        <v>10_Grocery_List.rb</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>10</v>
+      </c>
+      <c r="E120" s="1"/>
+      <c r="F120" t="str">
+        <f t="shared" si="9"/>
+        <v>11_.rb</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C122" t="str">
+        <f>A122&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B122,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
         <v>11_Medium_1</v>
       </c>
-      <c r="D121" t="s">
-        <v>10</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F121" t="str">
-        <f t="shared" si="7"/>
-        <v>1_Rotation_Part_1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>11</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>112</v>
+        <v>0</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F122" t="str">
-        <f t="shared" si="7"/>
-        <v>2_Rotation_Part_2</v>
+        <f t="shared" ref="F122:F132" si="10">D122&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E122," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Rotation_Part_1.rb</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="F123" t="str">
-        <f t="shared" si="7"/>
-        <v>3_Rotation_Part_3</v>
+        <f t="shared" si="10"/>
+        <v>2_Rotation_Part_2.rb</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="F124" t="str">
-        <f t="shared" si="7"/>
-        <v>4_1000_Lights</v>
+        <f t="shared" si="10"/>
+        <v>3_Rotation_Part_3.rb</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>115</v>
+        <v>3</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F125" t="str">
-        <f t="shared" si="7"/>
-        <v>5_Diamonds</v>
+        <f t="shared" si="10"/>
+        <v>4_1000_Lights.rb</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>116</v>
+        <v>4</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="F126" t="str">
-        <f t="shared" si="7"/>
-        <v>6_Stack_Machine_Interpretation</v>
+        <f t="shared" si="10"/>
+        <v>5_Diamonds.rb</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="F127" t="str">
-        <f t="shared" si="7"/>
-        <v>7_Word_to_Digit</v>
+        <f t="shared" si="10"/>
+        <v>6_Stack_Machine_Interpretation.rb</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128" s="2" t="s">
-        <v>118</v>
+        <v>6</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F128" t="str">
-        <f t="shared" si="7"/>
-        <v>8_Fibonacci_Numbers_Recursion</v>
+        <f t="shared" si="10"/>
+        <v>7_Word_to_Digit.rb</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>18</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>119</v>
+        <v>7</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F129" t="str">
-        <f t="shared" si="7"/>
-        <v>9_Fibonacci_Numbers_Procedural</v>
+        <f t="shared" si="10"/>
+        <v>8_Fibonacci_Numbers_Recursion.rb</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="F130" t="str">
-        <f t="shared" ref="F130:F167" si="13">D130&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E130," ","_"),"?",""),"!",""),"(",""),")","")</f>
-        <v>10_Fibonacci_Numbers_Last_Digit</v>
+        <f t="shared" si="10"/>
+        <v>9_Fibonacci_Numbers_Procedural.rb</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>20</v>
-      </c>
-      <c r="E131" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F131" t="str">
-        <f t="shared" si="13"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>151</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C133" t="str">
-        <f t="shared" ref="C133" si="14">A133&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B133," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <f t="shared" si="10"/>
+        <v>10_Fibonacci_Numbers_Last_Digit.rb</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>10</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" t="str">
+        <f t="shared" si="10"/>
+        <v>11_.rb</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>71</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C134" t="str">
+        <f>A134&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B134,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
         <v>12_Medium_2</v>
       </c>
-      <c r="D133" t="s">
-        <v>10</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F133" t="str">
-        <f t="shared" si="13"/>
-        <v>1_Longest_Sentence</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>11</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>122</v>
+        <v>0</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="F134" t="str">
-        <f t="shared" si="13"/>
-        <v>2_Now_I_Know_My_ABCs</v>
+        <f t="shared" ref="F134:F144" si="11">D134&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E134," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Longest_Sentence.rb</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>12</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>123</v>
+        <v>1</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F135" t="str">
-        <f t="shared" si="13"/>
-        <v>3_Lettercase_Percentage_Ratio</v>
+        <f t="shared" si="11"/>
+        <v>2_Now_I_Know_My_ABCs.rb</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>124</v>
+        <v>2</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="F136" t="str">
-        <f t="shared" si="13"/>
-        <v>4_Matching_Parentheses</v>
+        <f t="shared" si="11"/>
+        <v>3_Lettercase_Percentage_Ratio.rb</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>125</v>
+        <v>44</v>
       </c>
       <c r="F137" t="str">
-        <f t="shared" si="13"/>
-        <v>5_Triangle_Sides</v>
+        <f t="shared" si="11"/>
+        <v>4_Matching_Parentheses.rb</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="F138" t="str">
-        <f t="shared" si="13"/>
-        <v>6_Tri-Angles</v>
+        <f t="shared" si="11"/>
+        <v>5_Triangle_Sides.rb</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
       <c r="F139" t="str">
-        <f t="shared" si="13"/>
-        <v>7_Unlucky_Days</v>
+        <f t="shared" si="11"/>
+        <v>6_Tri-Angles.rb</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="F140" t="str">
-        <f t="shared" si="13"/>
-        <v>8_Next_Featured_Number_Higher_than_a_Given_Value</v>
+        <f t="shared" si="11"/>
+        <v>7_Unlucky_Days.rb</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>18</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>129</v>
+        <v>7</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="F141" t="str">
-        <f t="shared" si="13"/>
-        <v>9_Bubble_Sort</v>
+        <f t="shared" si="11"/>
+        <v>8_Next_Featured_Number_Higher_than_a_Given_Value.rb</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>19</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>130</v>
+        <v>8</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="F142" t="str">
-        <f t="shared" si="13"/>
-        <v>10_Sum_Square_-_Square_Sum</v>
+        <f t="shared" si="11"/>
+        <v>9_Bubble_Sort.rb</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>20</v>
-      </c>
-      <c r="E143" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F143" t="str">
-        <f t="shared" si="13"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>152</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C145" t="str">
-        <f t="shared" ref="C145" si="15">A145&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B145," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <f t="shared" si="11"/>
+        <v>10_Sum_Square_-_Square_Sum.rb</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>10</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" t="str">
+        <f t="shared" si="11"/>
+        <v>11_.rb</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>72</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" t="str">
+        <f>A146&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B146,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
         <v>13_Advanced_1</v>
       </c>
-      <c r="D145" t="s">
-        <v>10</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F145" t="str">
-        <f t="shared" si="13"/>
-        <v>1_Madlibs_Revisited</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="F146" t="str">
-        <f t="shared" si="13"/>
-        <v>2_Seeing_Stars</v>
+        <f t="shared" ref="F146:F156" si="12">D146&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E146," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Madlibs_Revisited.rb</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F147" t="str">
-        <f t="shared" si="13"/>
-        <v>3_Transpose_3x3</v>
+        <f t="shared" si="12"/>
+        <v>2_Seeing_Stars.rb</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>134</v>
+        <v>53</v>
       </c>
       <c r="F148" t="str">
-        <f t="shared" si="13"/>
-        <v>4_Transpose_MxN</v>
+        <f t="shared" si="12"/>
+        <v>3_Transpose_3x3.rb</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>135</v>
+        <v>54</v>
       </c>
       <c r="F149" t="str">
-        <f t="shared" si="13"/>
-        <v>5_Rotating_Matrices</v>
+        <f t="shared" si="12"/>
+        <v>4_Transpose_MxN.rb</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="F150" t="str">
-        <f t="shared" si="13"/>
-        <v>6_Fix_the_Bug</v>
+        <f t="shared" si="12"/>
+        <v>5_Rotating_Matrices.rb</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="F151" t="str">
-        <f t="shared" si="13"/>
-        <v>7_Merge_Sorted_Lists</v>
+        <f t="shared" si="12"/>
+        <v>6_Fix_the_Bug.rb</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>138</v>
+        <v>57</v>
       </c>
       <c r="F152" t="str">
-        <f t="shared" si="13"/>
-        <v>8_Merge_Sort</v>
+        <f t="shared" si="12"/>
+        <v>7_Merge_Sorted_Lists.rb</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>139</v>
+        <v>58</v>
       </c>
       <c r="F153" t="str">
-        <f t="shared" si="13"/>
-        <v>9_Egyptian_Fractions</v>
+        <f t="shared" si="12"/>
+        <v>8_Merge_Sort.rb</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>19</v>
-      </c>
-      <c r="E154" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="F154" t="str">
-        <f t="shared" si="13"/>
-        <v>10_</v>
+        <f t="shared" si="12"/>
+        <v>9_Egyptian_Fractions.rb</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" t="str">
-        <f t="shared" si="13"/>
-        <v>11_</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>153</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C157" t="str">
-        <f t="shared" ref="C157" si="16">A157&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B157," ","_"),"?",""),"!",""),"(",""),")","")</f>
+        <f t="shared" si="12"/>
+        <v>10_.rb</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>10</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" t="str">
+        <f t="shared" si="12"/>
+        <v>11_.rb</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>73</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C158" t="str">
+        <f>A158&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B158,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
         <v>14_Debugging</v>
       </c>
-      <c r="D157" t="s">
-        <v>10</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F157" t="str">
-        <f t="shared" si="13"/>
-        <v>1_Countdown</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D158" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="F158" t="str">
-        <f t="shared" si="13"/>
-        <v>2_HEY_YOU</v>
+        <f t="shared" ref="F158:F168" si="13">D158&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E158," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
+        <v>1_Countdown.rb</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="F159" t="str">
         <f t="shared" si="13"/>
-        <v>3_Valid_Series</v>
+        <v>2_HEY_YOU.rb</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="F160" t="str">
         <f t="shared" si="13"/>
-        <v>4_Reverse_Sentence</v>
+        <v>3_Valid_Series.rb</v>
       </c>
     </row>
     <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
-        <v>14</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>144</v>
+        <v>3</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="F161" t="str">
         <f t="shared" si="13"/>
-        <v>5_Card_Deck</v>
+        <v>4_Reverse_Sentence.rb</v>
       </c>
     </row>
     <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>145</v>
+        <v>4</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="F162" t="str">
         <f t="shared" si="13"/>
-        <v>6_Getting_Things_Done</v>
+        <v>5_Card_Deck.rb</v>
       </c>
     </row>
     <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>146</v>
+        <v>65</v>
       </c>
       <c r="F163" t="str">
         <f t="shared" si="13"/>
-        <v>7_Neutralizer</v>
+        <v>6_Getting_Things_Done.rb</v>
       </c>
     </row>
     <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>147</v>
+        <v>66</v>
       </c>
       <c r="F164" t="str">
         <f t="shared" si="13"/>
-        <v>8_Password</v>
+        <v>7_Neutralizer.rb</v>
       </c>
     </row>
     <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="F165" t="str">
         <f t="shared" si="13"/>
-        <v>9_Number_Guessing_Game</v>
+        <v>8_Password.rb</v>
       </c>
     </row>
     <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>149</v>
+        <v>68</v>
       </c>
       <c r="F166" t="str">
         <f t="shared" si="13"/>
-        <v>10_TF-IDF</v>
+        <v>9_Number_Guessing_Game.rb</v>
       </c>
     </row>
     <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="F167" t="str">
         <f t="shared" si="13"/>
-        <v>11_What's_wrong_with_the_output</v>
+        <v>10_TF-IDF.rb</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>10</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="13"/>
+        <v>11_What's_wrong_with_the_output.rb</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E25" r:id="rId1" display="https://launchschool.com/exercises/84376930" xr:uid="{90D56B83-D15C-40EB-B08F-ED7B864C0836}"/>
-    <hyperlink ref="E26" r:id="rId2" display="https://launchschool.com/exercises/7fc5d216" xr:uid="{2EABD53B-7357-47FF-B94F-7283568DBB70}"/>
-    <hyperlink ref="E27" r:id="rId3" display="https://launchschool.com/exercises/90d719d7" xr:uid="{9145A258-1E7B-43B4-945E-C6FCA117F1DA}"/>
-    <hyperlink ref="E28" r:id="rId4" display="https://launchschool.com/exercises/d28a76d4" xr:uid="{8E0D79D7-92A2-4C93-8D0F-BC1EFD67CF4B}"/>
-    <hyperlink ref="E29" r:id="rId5" display="https://launchschool.com/exercises/1af9d2f7" xr:uid="{B6BC704D-21B0-45C8-98ED-97123253B4C3}"/>
-    <hyperlink ref="E30" r:id="rId6" display="https://launchschool.com/exercises/e7a26cab" xr:uid="{5D21ADBA-CA13-42F0-AE15-FCA0B1D80FAD}"/>
-    <hyperlink ref="E31" r:id="rId7" display="https://launchschool.com/exercises/e3801a1a" xr:uid="{C73EB91A-574A-4649-AA03-DE6E1784E62D}"/>
-    <hyperlink ref="E32" r:id="rId8" display="https://launchschool.com/exercises/b720efd9" xr:uid="{ACA11A21-BACB-47C6-A1D2-FB6E3146D19E}"/>
-    <hyperlink ref="E33" r:id="rId9" display="https://launchschool.com/exercises/a12ef94e" xr:uid="{48BDCCED-B3E3-4639-9B54-6FBD6175F23A}"/>
-    <hyperlink ref="E34" r:id="rId10" display="https://launchschool.com/exercises/383b2769" xr:uid="{FF34480F-38D8-4FBE-A2FF-E6709816DDEA}"/>
-    <hyperlink ref="E1" r:id="rId11" display="https://launchschool.com/exercises/e215608d" xr:uid="{A65F2669-C55F-4CAA-BF66-46E5D9C9A88A}"/>
-    <hyperlink ref="E2" r:id="rId12" display="https://launchschool.com/exercises/4debd143" xr:uid="{BDE19B75-E37C-4D46-880D-2655F6E873E7}"/>
-    <hyperlink ref="E3" r:id="rId13" display="https://launchschool.com/exercises/c3d56d90" xr:uid="{024DD75B-A822-4A72-B291-F18844D4DD0A}"/>
-    <hyperlink ref="E4" r:id="rId14" display="https://launchschool.com/exercises/4ebc422b" xr:uid="{24DF81D0-7D1A-46C0-9332-E65BD425CFD8}"/>
-    <hyperlink ref="E5" r:id="rId15" display="https://launchschool.com/exercises/d45f350a" xr:uid="{42B77CDF-AAF1-49CE-9DC0-A71EC162EBD9}"/>
-    <hyperlink ref="E6" r:id="rId16" display="https://launchschool.com/exercises/7761d12c" xr:uid="{EF6978C1-F681-4710-8581-CFC6063D22E8}"/>
-    <hyperlink ref="E7" r:id="rId17" display="https://launchschool.com/exercises/3e9ad7d3" xr:uid="{497D62B8-CDDC-4383-9F30-F3B731998C7C}"/>
-    <hyperlink ref="E8" r:id="rId18" display="https://launchschool.com/exercises/bbb9b595" xr:uid="{7E8A303F-3859-4933-AEB5-F115B584AA3A}"/>
-    <hyperlink ref="E9" r:id="rId19" display="https://launchschool.com/exercises/a7984c38" xr:uid="{7838B9C4-F478-4B26-BFFA-4958CD0E8784}"/>
-    <hyperlink ref="E13" r:id="rId20" display="https://launchschool.com/exercises/a018e581" xr:uid="{0219500E-47A9-4AE4-A224-471A46F21F20}"/>
-    <hyperlink ref="E14" r:id="rId21" display="https://launchschool.com/exercises/dfa7db2c" xr:uid="{E025A475-7E1C-4275-B78C-11967D68A0D8}"/>
-    <hyperlink ref="E15" r:id="rId22" display="https://launchschool.com/exercises/30e147eb" xr:uid="{586A007E-F309-434C-8617-7682F8FE15B6}"/>
-    <hyperlink ref="E16" r:id="rId23" display="https://launchschool.com/exercises/d5c51b39" xr:uid="{752EB62B-FE34-4C14-BB67-D6B0DEAC0490}"/>
-    <hyperlink ref="E17" r:id="rId24" display="https://launchschool.com/exercises/51e98567" xr:uid="{C9347B49-8893-487C-917E-6BEB8329FF2C}"/>
-    <hyperlink ref="E18" r:id="rId25" display="https://launchschool.com/exercises/b415a65e" xr:uid="{53B0E2CA-3E89-4D41-875D-ABD7CD581246}"/>
-    <hyperlink ref="E19" r:id="rId26" display="https://launchschool.com/exercises/f37a9e56" xr:uid="{56CE4B9E-F6DD-405F-AF65-A25D6E02668C}"/>
-    <hyperlink ref="E20" r:id="rId27" display="https://launchschool.com/exercises/5b9a3e04" xr:uid="{4602608C-E861-4737-8FBB-B54EA23907CD}"/>
-    <hyperlink ref="E21" r:id="rId28" display="https://launchschool.com/exercises/0049ac13" xr:uid="{8632D059-E69C-4D8F-A5AF-4C058C87ED8D}"/>
-    <hyperlink ref="E22" r:id="rId29" display="https://launchschool.com/exercises/ff309c91" xr:uid="{3F42E28C-C266-4C51-88A9-02AE51240D5E}"/>
-    <hyperlink ref="E37" r:id="rId30" display="https://launchschool.com/exercises/f4f25695" xr:uid="{90289B72-75D8-4D49-BFCA-498E65EE5319}"/>
-    <hyperlink ref="E38" r:id="rId31" display="https://launchschool.com/exercises/b161d835" xr:uid="{06D0F719-1572-41B9-911A-C49E2A86AA54}"/>
-    <hyperlink ref="E39" r:id="rId32" display="https://launchschool.com/exercises/f85563ae" xr:uid="{BFC1770A-7373-4B74-82C4-1584608F3165}"/>
-    <hyperlink ref="E40" r:id="rId33" display="https://launchschool.com/exercises/d1cd145c" xr:uid="{BCD397D0-8142-403C-8189-44D2C1973204}"/>
-    <hyperlink ref="E41" r:id="rId34" display="https://launchschool.com/exercises/d24fe972" xr:uid="{2E427488-6D7B-4922-BA6A-645EFA4D4BFA}"/>
-    <hyperlink ref="E42" r:id="rId35" display="https://launchschool.com/exercises/b02d7e27" xr:uid="{C5CF8A19-CF7F-45D1-86D5-BDA0380274FF}"/>
-    <hyperlink ref="E43" r:id="rId36" display="https://launchschool.com/exercises/7ced73ba" xr:uid="{9219A32F-8C4E-4FA1-B6ED-1EDA547B65BD}"/>
-    <hyperlink ref="E44" r:id="rId37" display="https://launchschool.com/exercises/71ca3279" xr:uid="{1FEDEE8D-DADE-449A-B323-958DE700F966}"/>
-    <hyperlink ref="E45" r:id="rId38" display="https://launchschool.com/exercises/8fca300b" xr:uid="{2FA2EF43-0967-499B-9F4A-8D630BDA4BFC}"/>
-    <hyperlink ref="E46" r:id="rId39" display="https://launchschool.com/exercises/9ba7885a" xr:uid="{56FD7578-6574-4CFE-A7AD-D86FBB782F0E}"/>
-    <hyperlink ref="E49" r:id="rId40" display="https://launchschool.com/exercises/f175ddac" xr:uid="{4C4078F2-5C55-4835-B47E-28E2E72A6F1C}"/>
-    <hyperlink ref="E50" r:id="rId41" display="https://launchschool.com/exercises/d6a8f167" xr:uid="{57ED18A0-DA86-4616-B5F9-B35BB8DB21A2}"/>
-    <hyperlink ref="E51" r:id="rId42" display="https://launchschool.com/exercises/f44b8f8b" xr:uid="{0DED8C11-375B-4F5A-8B6E-99E7416C4387}"/>
-    <hyperlink ref="E52" r:id="rId43" display="https://launchschool.com/exercises/41d59cf3" xr:uid="{B198BEAE-2898-4F93-978E-8D841508877F}"/>
-    <hyperlink ref="E53" r:id="rId44" display="https://launchschool.com/exercises/675bc8c9" xr:uid="{FF4DF874-7E30-4BFD-85D2-E062950321DC}"/>
-    <hyperlink ref="E54" r:id="rId45" display="https://launchschool.com/exercises/ba434183" xr:uid="{C746F682-1EED-4183-8848-1E0400D542B7}"/>
-    <hyperlink ref="E55" r:id="rId46" display="https://launchschool.com/exercises/192719a5" xr:uid="{5DB00BC5-3EE9-43DA-98A1-D99610969895}"/>
-    <hyperlink ref="E56" r:id="rId47" display="https://launchschool.com/exercises/52e5f20f" xr:uid="{9762D1EB-05D9-47CD-BFAE-97A4AA149468}"/>
-    <hyperlink ref="E57" r:id="rId48" display="https://launchschool.com/exercises/cdc65476" xr:uid="{1582D382-7A5B-4476-9108-13B4BD6F7D7A}"/>
-    <hyperlink ref="E58" r:id="rId49" display="https://launchschool.com/exercises/3c1388d3" xr:uid="{9062DD90-F67A-4BA2-9A0D-10E59EADC2B4}"/>
-    <hyperlink ref="E61" r:id="rId50" display="https://launchschool.com/exercises/ae82edb6" xr:uid="{B27CF0ED-DA96-49D7-9E04-E2D73B3C8171}"/>
-    <hyperlink ref="E62" r:id="rId51" display="https://launchschool.com/exercises/864acdb4" xr:uid="{DE6F3A7C-E7D4-4954-87BB-93CD23C76E52}"/>
-    <hyperlink ref="E63" r:id="rId52" display="https://launchschool.com/exercises/34f92353" xr:uid="{C5913F6C-6275-43C9-BD8C-DEA80F096798}"/>
-    <hyperlink ref="E64" r:id="rId53" display="https://launchschool.com/exercises/56e92849" xr:uid="{BC228BB7-31B5-4270-825F-C0A5719EB02D}"/>
-    <hyperlink ref="E65" r:id="rId54" display="https://launchschool.com/exercises/28ff0d86" xr:uid="{BB1E7D0F-1CB9-4971-9012-6C0F0503291B}"/>
-    <hyperlink ref="E66" r:id="rId55" display="https://launchschool.com/exercises/e66bd409" xr:uid="{1791D2E5-2F56-404D-9134-A930211B46DF}"/>
-    <hyperlink ref="E67" r:id="rId56" display="https://launchschool.com/exercises/16124e4d" xr:uid="{0E785E24-9D83-4B77-B7AB-9D6E117F2E0D}"/>
-    <hyperlink ref="E68" r:id="rId57" display="https://launchschool.com/exercises/c688f4e5" xr:uid="{ADF0686A-DA39-4129-915F-3D8C99DE0894}"/>
-    <hyperlink ref="E69" r:id="rId58" display="https://launchschool.com/exercises/690b2900" xr:uid="{F8D598C3-6C12-48C6-8B9A-E62D5215C3B3}"/>
-    <hyperlink ref="E70" r:id="rId59" display="https://launchschool.com/exercises/29ffd590" xr:uid="{1828115C-DE2A-403D-AB02-822BA99EA823}"/>
-    <hyperlink ref="E71" r:id="rId60" display="https://launchschool.com/exercises/0c83973d" xr:uid="{9AA90F10-63D7-4F5C-B15D-49017C07A699}"/>
-    <hyperlink ref="E73" r:id="rId61" display="https://launchschool.com/exercises/054baaef" xr:uid="{707B26A5-AA15-4157-AA00-E05C982FBE3D}"/>
-    <hyperlink ref="E74" r:id="rId62" display="https://launchschool.com/exercises/8fa5da79" xr:uid="{1BADD425-2447-4BF8-B0BD-DD34CE2CDC8F}"/>
-    <hyperlink ref="E75" r:id="rId63" display="https://launchschool.com/exercises/1ba53710" xr:uid="{09229F13-8F80-44B9-8268-FF3AB3A38A19}"/>
-    <hyperlink ref="E76" r:id="rId64" display="https://launchschool.com/exercises/eec5e591" xr:uid="{8C908F4C-8C74-4A10-8D5A-08AB16FC6B61}"/>
-    <hyperlink ref="E77" r:id="rId65" display="https://launchschool.com/exercises/577016f3" xr:uid="{58A506CC-6E86-4C65-8A9A-1D69170F7416}"/>
-    <hyperlink ref="E78" r:id="rId66" display="https://launchschool.com/exercises/1ba11514" xr:uid="{1321160C-F9EC-4E3C-B114-9FB1B73C22BA}"/>
-    <hyperlink ref="E79" r:id="rId67" display="https://launchschool.com/exercises/d9b79537" xr:uid="{EA3AF570-754F-4B2C-8D7C-4B847706E16D}"/>
-    <hyperlink ref="E80" r:id="rId68" display="https://launchschool.com/exercises/fc74794d" xr:uid="{1CFAB515-EC0D-4EA2-AA5A-FC88C7DE62B6}"/>
-    <hyperlink ref="E81" r:id="rId69" display="https://launchschool.com/exercises/860cfef1" xr:uid="{99F578E9-7E99-4EC9-900C-0741DA5987AB}"/>
-    <hyperlink ref="E82" r:id="rId70" display="https://launchschool.com/exercises/d165e3c4" xr:uid="{9C7F9363-1A2D-49E5-8F90-338CB2F3B674}"/>
-    <hyperlink ref="E85" r:id="rId71" display="https://launchschool.com/exercises/3b64283e" xr:uid="{C0C5A2A0-2C22-4F60-871D-77A6DB3A1454}"/>
-    <hyperlink ref="E86" r:id="rId72" display="https://launchschool.com/exercises/96e0267a" xr:uid="{654E2A8A-0B40-46A5-BF83-6D61B637062D}"/>
-    <hyperlink ref="E87" r:id="rId73" display="https://launchschool.com/exercises/1be5fbac" xr:uid="{EF6F4D47-717F-44C0-8F84-4F1F072E4CCF}"/>
-    <hyperlink ref="E88" r:id="rId74" display="https://launchschool.com/exercises/f149de8d" xr:uid="{63EDA6AC-105B-4C4E-9771-FD4489FAB646}"/>
-    <hyperlink ref="E89" r:id="rId75" display="https://launchschool.com/exercises/77884ef5" xr:uid="{8526E9DA-C441-4512-8D85-B4BCDF2F6810}"/>
-    <hyperlink ref="E90" r:id="rId76" display="https://launchschool.com/exercises/6eb02aae" xr:uid="{74A50C77-A149-4DA1-ABE6-8D75FC6B6964}"/>
-    <hyperlink ref="E91" r:id="rId77" display="https://launchschool.com/exercises/00ee768d" xr:uid="{4AE95814-C0B0-4FE3-8320-662D25F77C80}"/>
-    <hyperlink ref="E92" r:id="rId78" display="https://launchschool.com/exercises/4a28f116" xr:uid="{897B63EB-8171-4106-8A97-B71BE428E4B7}"/>
-    <hyperlink ref="E93" r:id="rId79" display="https://launchschool.com/exercises/fd6b285b" xr:uid="{4B80045E-4D69-485E-9E88-52321033867D}"/>
-    <hyperlink ref="E94" r:id="rId80" display="https://launchschool.com/exercises/8332cd47" xr:uid="{14C56D7A-2FB0-47D1-95C7-AD474DB59354}"/>
-    <hyperlink ref="E97" r:id="rId81" display="https://launchschool.com/exercises/8a66610c" xr:uid="{03142A98-4115-4B0E-8993-9C8D8D76F36C}"/>
-    <hyperlink ref="E98" r:id="rId82" display="https://launchschool.com/exercises/76a6b44e" xr:uid="{1ED315AF-FF2A-4407-8DF1-8A23BB267E6B}"/>
-    <hyperlink ref="E99" r:id="rId83" display="https://launchschool.com/exercises/8bbbc072" xr:uid="{38E8A813-E949-429E-A6A0-8753F8C0B746}"/>
-    <hyperlink ref="E100" r:id="rId84" display="https://launchschool.com/exercises/70718e76" xr:uid="{7B23F70C-CCA9-4602-9136-C7AE243A4343}"/>
-    <hyperlink ref="E101" r:id="rId85" display="https://launchschool.com/exercises/93efd352" xr:uid="{D2D40BA9-3E4E-4C87-908B-28217F48FA54}"/>
-    <hyperlink ref="E102" r:id="rId86" display="https://launchschool.com/exercises/f1c61d35" xr:uid="{F49AC42C-D5A1-4247-BE37-D8DD1D134B8B}"/>
-    <hyperlink ref="E103" r:id="rId87" display="https://launchschool.com/exercises/665638e3" xr:uid="{C1CE2E57-3343-4B58-A1C9-E278F0AAE7B3}"/>
-    <hyperlink ref="E104" r:id="rId88" display="https://launchschool.com/exercises/86fbfc4c" xr:uid="{DE18B2B3-1ECA-4D23-A4F3-B32C69B98BD7}"/>
-    <hyperlink ref="E105" r:id="rId89" display="https://launchschool.com/exercises/351fdfdb" xr:uid="{41E965FC-B960-4F81-92FC-A301D64C94B3}"/>
-    <hyperlink ref="E106" r:id="rId90" display="https://launchschool.com/exercises/365dfb8b" xr:uid="{36164A79-26DF-4118-8983-BA9242C55844}"/>
-    <hyperlink ref="E109" r:id="rId91" display="https://launchschool.com/exercises/16ab1e1f" xr:uid="{658056F5-D1F4-40EF-A9EE-58216098F70E}"/>
-    <hyperlink ref="E110" r:id="rId92" display="https://launchschool.com/exercises/b5c55bc6" xr:uid="{6226351D-8F94-4AF1-B5FA-4DD7D65E3D7F}"/>
-    <hyperlink ref="E111" r:id="rId93" display="https://launchschool.com/exercises/311da364" xr:uid="{44126A7D-236C-46FF-A245-098BDFBA5174}"/>
-    <hyperlink ref="E112" r:id="rId94" display="https://launchschool.com/exercises/38531b9c" xr:uid="{6D810ADB-EDF6-4B46-AB10-94B4B446E869}"/>
-    <hyperlink ref="E113" r:id="rId95" display="https://launchschool.com/exercises/5ed98c5a" xr:uid="{867A7D8D-D268-409E-911A-6CD5371A6BDF}"/>
-    <hyperlink ref="E114" r:id="rId96" display="https://launchschool.com/exercises/15a07c61" xr:uid="{E42FF880-144F-4F79-B1AF-2DA6F936002F}"/>
-    <hyperlink ref="E115" r:id="rId97" display="https://launchschool.com/exercises/62b0d0fc" xr:uid="{C77391EA-21A7-4201-BC30-DB1A0BCB8EE7}"/>
-    <hyperlink ref="E116" r:id="rId98" display="https://launchschool.com/exercises/02350925" xr:uid="{A393B8BA-F83F-4F3B-B2EC-E68167974729}"/>
-    <hyperlink ref="E117" r:id="rId99" display="https://launchschool.com/exercises/063fa805" xr:uid="{E99EC3B3-409A-42EA-A063-54A8E211C420}"/>
-    <hyperlink ref="E118" r:id="rId100" display="https://launchschool.com/exercises/c1dfffc8" xr:uid="{5183911D-785B-4220-A471-380E8779F3A1}"/>
-    <hyperlink ref="E121" r:id="rId101" display="https://launchschool.com/exercises/4b2a26d5" xr:uid="{5026CA73-B61C-4E1F-8BE6-5853715C002F}"/>
-    <hyperlink ref="E122" r:id="rId102" display="https://launchschool.com/exercises/11e2bbdc" xr:uid="{2F911AFF-F8D7-4E6F-A177-9191C8C0F7A2}"/>
-    <hyperlink ref="E123" r:id="rId103" display="https://launchschool.com/exercises/db673773" xr:uid="{D4A6DD22-9D06-448C-90E6-B6BEE6F5A5DB}"/>
-    <hyperlink ref="E124" r:id="rId104" display="https://launchschool.com/exercises/61d687f4" xr:uid="{8CFF7556-E774-421C-9490-EEF45DA0AC7E}"/>
-    <hyperlink ref="E125" r:id="rId105" display="https://launchschool.com/exercises/75ff93ae" xr:uid="{EA8FB5D5-2185-4DFC-8462-68F8CBE3D2E0}"/>
-    <hyperlink ref="E126" r:id="rId106" display="https://launchschool.com/exercises/0f677535" xr:uid="{5F24CFD7-FD6B-4475-A1E1-78C999238268}"/>
-    <hyperlink ref="E127" r:id="rId107" display="https://launchschool.com/exercises/753d4461" xr:uid="{A77E85EF-C683-4B79-8419-57A2491FBAB5}"/>
-    <hyperlink ref="E128" r:id="rId108" display="https://launchschool.com/exercises/83e16900" xr:uid="{6E2DEC3D-EB15-4A8B-BCCB-C4AC81986AC6}"/>
-    <hyperlink ref="E129" r:id="rId109" display="https://launchschool.com/exercises/336d2612" xr:uid="{734C34A8-AC2F-4020-B762-7FD4A0DBA539}"/>
-    <hyperlink ref="E130" r:id="rId110" display="https://launchschool.com/exercises/2dd79c4e" xr:uid="{6FDEBFD6-CB78-4AF9-B0F9-C28075A879D5}"/>
-    <hyperlink ref="E133" r:id="rId111" display="https://launchschool.com/exercises/5c3e3cf3" xr:uid="{7B24B5D9-66CF-466F-94DE-04413DC21C4B}"/>
-    <hyperlink ref="E134" r:id="rId112" display="https://launchschool.com/exercises/41e03303" xr:uid="{465B543C-24F9-4C48-9F46-EFB1FB552975}"/>
-    <hyperlink ref="E135" r:id="rId113" display="https://launchschool.com/exercises/e0500589" xr:uid="{673EA977-F4E6-4DC5-8E5A-6C764AD6F0C2}"/>
-    <hyperlink ref="E136" r:id="rId114" display="https://launchschool.com/exercises/f3d7f26e" xr:uid="{4C9D47CE-3839-4CBD-A2A4-4FEFA15482B1}"/>
-    <hyperlink ref="E137" r:id="rId115" display="https://launchschool.com/exercises/7fe5eaf8" xr:uid="{90E5CDCD-AA2E-4837-810D-62BCC3B84E2D}"/>
-    <hyperlink ref="E138" r:id="rId116" display="https://launchschool.com/exercises/1d04b607" xr:uid="{04570BD1-8457-4F0A-A303-687E63EDF3DE}"/>
-    <hyperlink ref="E139" r:id="rId117" display="https://launchschool.com/exercises/a7fce257" xr:uid="{E8B82DB2-A071-478E-BCF3-246DCB9BBA16}"/>
-    <hyperlink ref="E140" r:id="rId118" display="https://launchschool.com/exercises/a1afc619" xr:uid="{F11ACAD7-3FB7-4245-8DED-32B421CD2BEC}"/>
-    <hyperlink ref="E141" r:id="rId119" display="https://launchschool.com/exercises/2a5d5a4e" xr:uid="{B3C6B959-7F47-46B9-8EDC-B8C0BCC5EB9C}"/>
-    <hyperlink ref="E142" r:id="rId120" display="https://launchschool.com/exercises/ce453287" xr:uid="{B5D14022-9B36-4A90-A9DC-F0639A467E7D}"/>
-    <hyperlink ref="E145" r:id="rId121" display="https://launchschool.com/exercises/3dd7dd43" xr:uid="{DF6F74C6-0C96-4829-B020-2DB29C3CACE9}"/>
-    <hyperlink ref="E146" r:id="rId122" display="https://launchschool.com/exercises/facfe405" xr:uid="{350B130C-F0BF-4F15-8236-744A554966F1}"/>
-    <hyperlink ref="E147" r:id="rId123" display="https://launchschool.com/exercises/01d32e03" xr:uid="{129EC854-AE19-4D43-B51B-6DAE81B53EC1}"/>
-    <hyperlink ref="E148" r:id="rId124" display="https://launchschool.com/exercises/ff9b13b6" xr:uid="{18EB73E7-35FA-4F01-82C0-56A1E2B35ACE}"/>
-    <hyperlink ref="E149" r:id="rId125" display="https://launchschool.com/exercises/6f022fc1" xr:uid="{E4868B18-76FC-4BDF-91BA-B99D6E7A0736}"/>
-    <hyperlink ref="E150" r:id="rId126" display="https://launchschool.com/exercises/143443fd" xr:uid="{7C601399-B647-49AF-A977-4EA3B08D8103}"/>
-    <hyperlink ref="E151" r:id="rId127" display="https://launchschool.com/exercises/63801750" xr:uid="{C5F2930C-AABB-40AB-9B82-3FD48203A3EB}"/>
-    <hyperlink ref="E152" r:id="rId128" display="https://launchschool.com/exercises/bf7055e5" xr:uid="{19949286-5D6C-470A-9D41-61184511B47A}"/>
-    <hyperlink ref="E153" r:id="rId129" display="https://launchschool.com/exercises/5f95d514" xr:uid="{860AD084-2469-47E0-B351-1DC3D61E3D37}"/>
-    <hyperlink ref="E157" r:id="rId130" display="https://launchschool.com/exercises/3919350b" xr:uid="{969A10A6-D230-4654-B126-626CE791D334}"/>
-    <hyperlink ref="E158" r:id="rId131" display="https://launchschool.com/exercises/bb1c8d5d" xr:uid="{D5665B1D-BB00-458F-85C0-DD457D24DEBF}"/>
-    <hyperlink ref="E159" r:id="rId132" display="https://launchschool.com/exercises/e268eab0" xr:uid="{ECA80711-EFA3-49FD-8E6D-E9F0E0293278}"/>
-    <hyperlink ref="E160" r:id="rId133" display="https://launchschool.com/exercises/dffe2cae" xr:uid="{28A74AA0-8D5B-495A-AA26-E1E03B202495}"/>
-    <hyperlink ref="E161" r:id="rId134" display="https://launchschool.com/exercises/ba1af3bb" xr:uid="{C7D4FA41-B5F5-40BA-9F03-E80D94FBE5CE}"/>
-    <hyperlink ref="E162" r:id="rId135" display="https://launchschool.com/exercises/9e40881a" xr:uid="{4084FC43-A89B-45CD-90E9-21A6C1CA0DEA}"/>
-    <hyperlink ref="E163" r:id="rId136" display="https://launchschool.com/exercises/51385f07" xr:uid="{5B1ACC7B-3BC4-4F60-AAB7-AF03A5AA4057}"/>
-    <hyperlink ref="E164" r:id="rId137" display="https://launchschool.com/exercises/23afd966" xr:uid="{AE9E1D2C-EA33-494A-9F43-5756F6CB4FBD}"/>
-    <hyperlink ref="E165" r:id="rId138" display="https://launchschool.com/exercises/8adca098" xr:uid="{57C3485C-7AB9-4127-8785-FDFCB525C44F}"/>
-    <hyperlink ref="E166" r:id="rId139" display="https://launchschool.com/exercises/4044b772" xr:uid="{3CB9ED23-87BA-435B-9DBA-13129A74C8C0}"/>
-    <hyperlink ref="E167" r:id="rId140" display="https://launchschool.com/exercises/12f874e9" xr:uid="{FB3CDF74-A24E-4BF4-8094-CA8B1F9ED40F}"/>
+    <hyperlink ref="E98" r:id="rId1" display="https://launchschool.com/exercises/8a66610c" xr:uid="{03142A98-4115-4B0E-8993-9C8D8D76F36C}"/>
+    <hyperlink ref="E99" r:id="rId2" display="https://launchschool.com/exercises/76a6b44e" xr:uid="{1ED315AF-FF2A-4407-8DF1-8A23BB267E6B}"/>
+    <hyperlink ref="E100" r:id="rId3" display="https://launchschool.com/exercises/8bbbc072" xr:uid="{38E8A813-E949-429E-A6A0-8753F8C0B746}"/>
+    <hyperlink ref="E101" r:id="rId4" display="https://launchschool.com/exercises/70718e76" xr:uid="{7B23F70C-CCA9-4602-9136-C7AE243A4343}"/>
+    <hyperlink ref="E102" r:id="rId5" display="https://launchschool.com/exercises/93efd352" xr:uid="{D2D40BA9-3E4E-4C87-908B-28217F48FA54}"/>
+    <hyperlink ref="E103" r:id="rId6" display="https://launchschool.com/exercises/f1c61d35" xr:uid="{F49AC42C-D5A1-4247-BE37-D8DD1D134B8B}"/>
+    <hyperlink ref="E104" r:id="rId7" display="https://launchschool.com/exercises/665638e3" xr:uid="{C1CE2E57-3343-4B58-A1C9-E278F0AAE7B3}"/>
+    <hyperlink ref="E105" r:id="rId8" display="https://launchschool.com/exercises/86fbfc4c" xr:uid="{DE18B2B3-1ECA-4D23-A4F3-B32C69B98BD7}"/>
+    <hyperlink ref="E106" r:id="rId9" display="https://launchschool.com/exercises/351fdfdb" xr:uid="{41E965FC-B960-4F81-92FC-A301D64C94B3}"/>
+    <hyperlink ref="E107" r:id="rId10" display="https://launchschool.com/exercises/365dfb8b" xr:uid="{36164A79-26DF-4118-8983-BA9242C55844}"/>
+    <hyperlink ref="E110" r:id="rId11" display="https://launchschool.com/exercises/16ab1e1f" xr:uid="{658056F5-D1F4-40EF-A9EE-58216098F70E}"/>
+    <hyperlink ref="E111" r:id="rId12" display="https://launchschool.com/exercises/b5c55bc6" xr:uid="{6226351D-8F94-4AF1-B5FA-4DD7D65E3D7F}"/>
+    <hyperlink ref="E112" r:id="rId13" display="https://launchschool.com/exercises/311da364" xr:uid="{44126A7D-236C-46FF-A245-098BDFBA5174}"/>
+    <hyperlink ref="E113" r:id="rId14" display="https://launchschool.com/exercises/38531b9c" xr:uid="{6D810ADB-EDF6-4B46-AB10-94B4B446E869}"/>
+    <hyperlink ref="E114" r:id="rId15" display="https://launchschool.com/exercises/5ed98c5a" xr:uid="{867A7D8D-D268-409E-911A-6CD5371A6BDF}"/>
+    <hyperlink ref="E115" r:id="rId16" display="https://launchschool.com/exercises/15a07c61" xr:uid="{E42FF880-144F-4F79-B1AF-2DA6F936002F}"/>
+    <hyperlink ref="E116" r:id="rId17" display="https://launchschool.com/exercises/62b0d0fc" xr:uid="{C77391EA-21A7-4201-BC30-DB1A0BCB8EE7}"/>
+    <hyperlink ref="E117" r:id="rId18" display="https://launchschool.com/exercises/02350925" xr:uid="{A393B8BA-F83F-4F3B-B2EC-E68167974729}"/>
+    <hyperlink ref="E118" r:id="rId19" display="https://launchschool.com/exercises/063fa805" xr:uid="{E99EC3B3-409A-42EA-A063-54A8E211C420}"/>
+    <hyperlink ref="E119" r:id="rId20" display="https://launchschool.com/exercises/c1dfffc8" xr:uid="{5183911D-785B-4220-A471-380E8779F3A1}"/>
+    <hyperlink ref="E122" r:id="rId21" display="https://launchschool.com/exercises/4b2a26d5" xr:uid="{5026CA73-B61C-4E1F-8BE6-5853715C002F}"/>
+    <hyperlink ref="E123" r:id="rId22" display="https://launchschool.com/exercises/11e2bbdc" xr:uid="{2F911AFF-F8D7-4E6F-A177-9191C8C0F7A2}"/>
+    <hyperlink ref="E124" r:id="rId23" display="https://launchschool.com/exercises/db673773" xr:uid="{D4A6DD22-9D06-448C-90E6-B6BEE6F5A5DB}"/>
+    <hyperlink ref="E125" r:id="rId24" display="https://launchschool.com/exercises/61d687f4" xr:uid="{8CFF7556-E774-421C-9490-EEF45DA0AC7E}"/>
+    <hyperlink ref="E126" r:id="rId25" display="https://launchschool.com/exercises/75ff93ae" xr:uid="{EA8FB5D5-2185-4DFC-8462-68F8CBE3D2E0}"/>
+    <hyperlink ref="E127" r:id="rId26" display="https://launchschool.com/exercises/0f677535" xr:uid="{5F24CFD7-FD6B-4475-A1E1-78C999238268}"/>
+    <hyperlink ref="E128" r:id="rId27" display="https://launchschool.com/exercises/753d4461" xr:uid="{A77E85EF-C683-4B79-8419-57A2491FBAB5}"/>
+    <hyperlink ref="E129" r:id="rId28" display="https://launchschool.com/exercises/83e16900" xr:uid="{6E2DEC3D-EB15-4A8B-BCCB-C4AC81986AC6}"/>
+    <hyperlink ref="E130" r:id="rId29" display="https://launchschool.com/exercises/336d2612" xr:uid="{734C34A8-AC2F-4020-B762-7FD4A0DBA539}"/>
+    <hyperlink ref="E131" r:id="rId30" display="https://launchschool.com/exercises/2dd79c4e" xr:uid="{6FDEBFD6-CB78-4AF9-B0F9-C28075A879D5}"/>
+    <hyperlink ref="E134" r:id="rId31" display="https://launchschool.com/exercises/5c3e3cf3" xr:uid="{7B24B5D9-66CF-466F-94DE-04413DC21C4B}"/>
+    <hyperlink ref="E135" r:id="rId32" display="https://launchschool.com/exercises/41e03303" xr:uid="{465B543C-24F9-4C48-9F46-EFB1FB552975}"/>
+    <hyperlink ref="E136" r:id="rId33" display="https://launchschool.com/exercises/e0500589" xr:uid="{673EA977-F4E6-4DC5-8E5A-6C764AD6F0C2}"/>
+    <hyperlink ref="E137" r:id="rId34" display="https://launchschool.com/exercises/f3d7f26e" xr:uid="{4C9D47CE-3839-4CBD-A2A4-4FEFA15482B1}"/>
+    <hyperlink ref="E138" r:id="rId35" display="https://launchschool.com/exercises/7fe5eaf8" xr:uid="{90E5CDCD-AA2E-4837-810D-62BCC3B84E2D}"/>
+    <hyperlink ref="E139" r:id="rId36" display="https://launchschool.com/exercises/1d04b607" xr:uid="{04570BD1-8457-4F0A-A303-687E63EDF3DE}"/>
+    <hyperlink ref="E140" r:id="rId37" display="https://launchschool.com/exercises/a7fce257" xr:uid="{E8B82DB2-A071-478E-BCF3-246DCB9BBA16}"/>
+    <hyperlink ref="E141" r:id="rId38" display="https://launchschool.com/exercises/a1afc619" xr:uid="{F11ACAD7-3FB7-4245-8DED-32B421CD2BEC}"/>
+    <hyperlink ref="E142" r:id="rId39" display="https://launchschool.com/exercises/2a5d5a4e" xr:uid="{B3C6B959-7F47-46B9-8EDC-B8C0BCC5EB9C}"/>
+    <hyperlink ref="E143" r:id="rId40" display="https://launchschool.com/exercises/ce453287" xr:uid="{B5D14022-9B36-4A90-A9DC-F0639A467E7D}"/>
+    <hyperlink ref="E146" r:id="rId41" display="https://launchschool.com/exercises/3dd7dd43" xr:uid="{DF6F74C6-0C96-4829-B020-2DB29C3CACE9}"/>
+    <hyperlink ref="E147" r:id="rId42" display="https://launchschool.com/exercises/facfe405" xr:uid="{350B130C-F0BF-4F15-8236-744A554966F1}"/>
+    <hyperlink ref="E148" r:id="rId43" display="https://launchschool.com/exercises/01d32e03" xr:uid="{129EC854-AE19-4D43-B51B-6DAE81B53EC1}"/>
+    <hyperlink ref="E149" r:id="rId44" display="https://launchschool.com/exercises/ff9b13b6" xr:uid="{18EB73E7-35FA-4F01-82C0-56A1E2B35ACE}"/>
+    <hyperlink ref="E150" r:id="rId45" display="https://launchschool.com/exercises/6f022fc1" xr:uid="{E4868B18-76FC-4BDF-91BA-B99D6E7A0736}"/>
+    <hyperlink ref="E151" r:id="rId46" display="https://launchschool.com/exercises/143443fd" xr:uid="{7C601399-B647-49AF-A977-4EA3B08D8103}"/>
+    <hyperlink ref="E152" r:id="rId47" display="https://launchschool.com/exercises/63801750" xr:uid="{C5F2930C-AABB-40AB-9B82-3FD48203A3EB}"/>
+    <hyperlink ref="E153" r:id="rId48" display="https://launchschool.com/exercises/bf7055e5" xr:uid="{19949286-5D6C-470A-9D41-61184511B47A}"/>
+    <hyperlink ref="E154" r:id="rId49" display="https://launchschool.com/exercises/5f95d514" xr:uid="{860AD084-2469-47E0-B351-1DC3D61E3D37}"/>
+    <hyperlink ref="E158" r:id="rId50" display="https://launchschool.com/exercises/3919350b" xr:uid="{969A10A6-D230-4654-B126-626CE791D334}"/>
+    <hyperlink ref="E159" r:id="rId51" display="https://launchschool.com/exercises/bb1c8d5d" xr:uid="{D5665B1D-BB00-458F-85C0-DD457D24DEBF}"/>
+    <hyperlink ref="E160" r:id="rId52" display="https://launchschool.com/exercises/e268eab0" xr:uid="{ECA80711-EFA3-49FD-8E6D-E9F0E0293278}"/>
+    <hyperlink ref="E161" r:id="rId53" display="https://launchschool.com/exercises/dffe2cae" xr:uid="{28A74AA0-8D5B-495A-AA26-E1E03B202495}"/>
+    <hyperlink ref="E162" r:id="rId54" display="https://launchschool.com/exercises/ba1af3bb" xr:uid="{C7D4FA41-B5F5-40BA-9F03-E80D94FBE5CE}"/>
+    <hyperlink ref="E163" r:id="rId55" display="https://launchschool.com/exercises/9e40881a" xr:uid="{4084FC43-A89B-45CD-90E9-21A6C1CA0DEA}"/>
+    <hyperlink ref="E164" r:id="rId56" display="https://launchschool.com/exercises/51385f07" xr:uid="{5B1ACC7B-3BC4-4F60-AAB7-AF03A5AA4057}"/>
+    <hyperlink ref="E165" r:id="rId57" display="https://launchschool.com/exercises/23afd966" xr:uid="{AE9E1D2C-EA33-494A-9F43-5756F6CB4FBD}"/>
+    <hyperlink ref="E166" r:id="rId58" display="https://launchschool.com/exercises/8adca098" xr:uid="{57C3485C-7AB9-4127-8785-FDFCB525C44F}"/>
+    <hyperlink ref="E167" r:id="rId59" display="https://launchschool.com/exercises/4044b772" xr:uid="{3CB9ED23-87BA-435B-9DBA-13129A74C8C0}"/>
+    <hyperlink ref="E168" r:id="rId60" display="https://launchschool.com/exercises/12f874e9" xr:uid="{FB3CDF74-A24E-4BF4-8094-CA8B1F9ED40F}"/>
+    <hyperlink ref="B14" r:id="rId61" display="https://launchschool.com/exercise_sets/133b9ab1" xr:uid="{E5735B9E-D871-4695-9A81-88050FD02874}"/>
+    <hyperlink ref="B26" r:id="rId62" display="https://launchschool.com/exercise_sets/940f7e7d" xr:uid="{41C1A0B4-E6D0-4FB3-86D2-35EB272CC1DC}"/>
+    <hyperlink ref="B38" r:id="rId63" display="https://launchschool.com/exercise_sets/1485a78e" xr:uid="{3398BFCA-50D6-4E46-8B6A-DD5DD5B01CDA}"/>
+    <hyperlink ref="B50" r:id="rId64" display="https://launchschool.com/exercise_sets/0040bc1b" xr:uid="{525BCCE7-88FD-4FE2-9C74-ED97C40BD3EC}"/>
+    <hyperlink ref="B62" r:id="rId65" display="https://launchschool.com/exercise_sets/a40ef2dc" xr:uid="{D818EB54-C53A-4E4F-9FE1-A2F3A363A708}"/>
+    <hyperlink ref="B74" r:id="rId66" display="https://launchschool.com/exercise_sets/e0cc58f8" xr:uid="{A9B2050A-EC3E-439E-902E-401D4004127E}"/>
+    <hyperlink ref="B86" r:id="rId67" display="https://launchschool.com/exercise_sets/5e5f2772" xr:uid="{7D876CFD-ACBD-4D15-A3DE-40802E2D0AE3}"/>
+    <hyperlink ref="E2" r:id="rId68" display="https://launchschool.com/exercises/d44de169" xr:uid="{9D329CC4-B76B-491E-9793-AB840A317BE2}"/>
+    <hyperlink ref="E3" r:id="rId69" display="https://launchschool.com/exercises/db363aba" xr:uid="{28C88F66-0EAB-43B0-B18B-DE20F7A9DFC0}"/>
+    <hyperlink ref="E4" r:id="rId70" display="https://launchschool.com/exercises/ce73d7fc" xr:uid="{464BE7EC-7B6B-4E01-A0C3-9E7A0F6B8569}"/>
+    <hyperlink ref="E5" r:id="rId71" display="https://launchschool.com/exercises/12d58ad4" xr:uid="{8731E235-D49F-4F82-9A50-79BD6104876A}"/>
+    <hyperlink ref="E6" r:id="rId72" display="https://launchschool.com/exercises/1239fa0d" xr:uid="{47EF9EE1-BC38-470E-B1AA-538F6169B130}"/>
+    <hyperlink ref="E7" r:id="rId73" display="https://launchschool.com/exercises/ab3dd737" xr:uid="{E1AD9F6B-4B62-4BB6-9CD4-6A304DF89474}"/>
+    <hyperlink ref="E8" r:id="rId74" display="https://launchschool.com/exercises/18da9ce6" xr:uid="{720C6FB4-8FDF-4438-A90A-EF45F9A2E4CE}"/>
+    <hyperlink ref="E9" r:id="rId75" display="https://launchschool.com/exercises/d6dcec73" xr:uid="{154E76C6-16CB-4CAA-B454-B1576D6AC1F2}"/>
+    <hyperlink ref="E10" r:id="rId76" display="https://launchschool.com/exercises/40d33066" xr:uid="{322447B7-A196-4559-83AE-A3D9CE2AC4D9}"/>
+    <hyperlink ref="E11" r:id="rId77" display="https://launchschool.com/exercises/6d5fd262" xr:uid="{EFFAA519-1A8E-42F9-AD63-BD323F8FFAF0}"/>
+    <hyperlink ref="E14" r:id="rId78" display="https://launchschool.com/exercises/96fae1ac" xr:uid="{0D27B3AD-276D-4EC1-BB43-7E107A7D8EC0}"/>
+    <hyperlink ref="E15" r:id="rId79" display="https://launchschool.com/exercises/f00e08d5" xr:uid="{CB60964C-89D9-41E6-A4B1-9B3BA51B3FEB}"/>
+    <hyperlink ref="E16" r:id="rId80" display="https://launchschool.com/exercises/09447cd6" xr:uid="{5C42B03C-8D5C-4E71-8550-D6782A959CD2}"/>
+    <hyperlink ref="E17" r:id="rId81" display="https://launchschool.com/exercises/48a171b0" xr:uid="{9B640A73-D7BF-423B-9723-E0FC01CEE271}"/>
+    <hyperlink ref="E18" r:id="rId82" display="https://launchschool.com/exercises/40a2aede" xr:uid="{9F9E473F-2C6E-448B-A8FF-9DEB7D4BDBCA}"/>
+    <hyperlink ref="E19" r:id="rId83" display="https://launchschool.com/exercises/5835e7ee" xr:uid="{407BF9DF-9A4F-4DCA-BBC6-4A7E9A6C8529}"/>
+    <hyperlink ref="E20" r:id="rId84" display="https://launchschool.com/exercises/e7ca751c" xr:uid="{406E1CF3-B2F4-4570-9862-BAF21A554424}"/>
+    <hyperlink ref="E21" r:id="rId85" display="https://launchschool.com/exercises/15b002de" xr:uid="{5C8F2D48-2AC2-4572-A9E5-466080A42B74}"/>
+    <hyperlink ref="E22" r:id="rId86" display="https://launchschool.com/exercises/acb6e2b2" xr:uid="{2A712E89-2563-4E85-A4E8-3FCC37714BC5}"/>
+    <hyperlink ref="E23" r:id="rId87" display="https://launchschool.com/exercises/001419ed" xr:uid="{98671EBE-64B9-40CA-95C6-31C36732AEE3}"/>
+    <hyperlink ref="E26" r:id="rId88" display="https://launchschool.com/exercises/25e1ccaf" xr:uid="{C8A3D866-87B1-4556-AFA9-D7AA00EE69BB}"/>
+    <hyperlink ref="E27" r:id="rId89" display="https://launchschool.com/exercises/6a35145d" xr:uid="{0970C635-0974-4ED4-AD83-EDC2E80A7D94}"/>
+    <hyperlink ref="E28" r:id="rId90" display="https://launchschool.com/exercises/2a89824f" xr:uid="{6D4513A0-F805-4947-A418-A55A7C67DE65}"/>
+    <hyperlink ref="E29" r:id="rId91" display="https://launchschool.com/exercises/a69454cc" xr:uid="{1BB47C62-B6DD-45F2-B432-875148DD3F18}"/>
+    <hyperlink ref="E30" r:id="rId92" display="https://launchschool.com/exercises/f93d4bfd" xr:uid="{BD046F0C-838D-4CBB-A883-5A4071783C93}"/>
+    <hyperlink ref="E31" r:id="rId93" display="https://launchschool.com/exercises/85461a47" xr:uid="{C29AAED4-C528-4C5E-9F14-72E674651F7A}"/>
+    <hyperlink ref="E32" r:id="rId94" display="https://launchschool.com/exercises/ca4598d3" xr:uid="{23ABCE99-5462-4267-A3E2-B26A0E1EBF3E}"/>
+    <hyperlink ref="E33" r:id="rId95" display="https://launchschool.com/exercises/e90ae9a7" xr:uid="{430AF0DE-0B6D-4557-BEEE-51822AAB72E3}"/>
+    <hyperlink ref="E34" r:id="rId96" display="https://launchschool.com/exercises/fa38af89" xr:uid="{D0C113AF-AE79-4463-93AF-0821DCDB8A1B}"/>
+    <hyperlink ref="E35" r:id="rId97" display="https://launchschool.com/exercises/507a7449" xr:uid="{E810A5C5-9804-4571-8FB4-B95243514517}"/>
+    <hyperlink ref="E38" r:id="rId98" display="https://launchschool.com/exercises/7ec184cd" xr:uid="{DA90D5A7-D980-4D5B-9737-CE8DCB4A2797}"/>
+    <hyperlink ref="E39" r:id="rId99" display="https://launchschool.com/exercises/8e397cb3" xr:uid="{D0747A37-FC9B-4A0C-A7F0-069D0FA95430}"/>
+    <hyperlink ref="E40" r:id="rId100" display="https://launchschool.com/exercises/be7a7323" xr:uid="{802CED16-29E3-4F47-B811-6443D837FF1D}"/>
+    <hyperlink ref="E41" r:id="rId101" display="https://launchschool.com/exercises/3fd87787" xr:uid="{9ABA25D1-D96A-4560-829B-597F55AB0212}"/>
+    <hyperlink ref="E42" r:id="rId102" display="https://launchschool.com/exercises/13a81deb" xr:uid="{F3296D6E-20D1-4049-BC30-7A66A188DD57}"/>
+    <hyperlink ref="E43" r:id="rId103" display="https://launchschool.com/exercises/fd9cf084" xr:uid="{E9F3CD67-1E82-408C-B077-EB75A0675AD6}"/>
+    <hyperlink ref="E44" r:id="rId104" display="https://launchschool.com/exercises/a04f07e7" xr:uid="{2C4D0275-96A3-4FA0-A0DC-492D6CC1AE4A}"/>
+    <hyperlink ref="E45" r:id="rId105" display="https://launchschool.com/exercises/ae80cee3" xr:uid="{8EF568F5-C9C9-46FE-B147-EA97629A830B}"/>
+    <hyperlink ref="E46" r:id="rId106" display="https://launchschool.com/exercises/91ee1dc4" xr:uid="{8BCE26AD-1F41-4F43-80AB-75C97B81DE49}"/>
+    <hyperlink ref="E47" r:id="rId107" display="https://launchschool.com/exercises/dc12d4a4" xr:uid="{34B0BE96-0BFE-43D9-AB10-A0AC825A7DB9}"/>
+    <hyperlink ref="E50" r:id="rId108" display="https://launchschool.com/exercises/de341977" xr:uid="{2D6A79BD-8B04-472A-A9AA-1AE983531B31}"/>
+    <hyperlink ref="E51" r:id="rId109" display="https://launchschool.com/exercises/c1b97807" xr:uid="{420BD6F0-388A-4097-8C52-1FE4CDA65D2C}"/>
+    <hyperlink ref="E52" r:id="rId110" display="https://launchschool.com/exercises/8e06baee" xr:uid="{1051A683-8B7A-46B6-B9B2-2A90100EE9CE}"/>
+    <hyperlink ref="E53" r:id="rId111" display="https://launchschool.com/exercises/f6f7f6d7" xr:uid="{26E57EA2-B5C6-4809-9ABA-D3B5715CEF8E}"/>
+    <hyperlink ref="E54" r:id="rId112" display="https://launchschool.com/exercises/5329e5b8" xr:uid="{ACA5F544-B943-40DC-A0EE-3D7DE966E92B}"/>
+    <hyperlink ref="E55" r:id="rId113" display="https://launchschool.com/exercises/39281260" xr:uid="{2BE0F3B9-130B-4C04-A789-FFCF17264FE9}"/>
+    <hyperlink ref="E56" r:id="rId114" display="https://launchschool.com/exercises/252fb35b" xr:uid="{687D4EE9-0F4A-4146-A6AB-C3D92D988653}"/>
+    <hyperlink ref="E57" r:id="rId115" display="https://launchschool.com/exercises/42f030c9" xr:uid="{174CD86D-8883-4A47-9A71-C0081290CB48}"/>
+    <hyperlink ref="E58" r:id="rId116" display="https://launchschool.com/exercises/2a60c00f" xr:uid="{05D98CB6-8CF6-4A7E-A4EC-DE837ACE47D5}"/>
+    <hyperlink ref="E59" r:id="rId117" display="https://launchschool.com/exercises/a4ade9b3" xr:uid="{EA7CCD29-30BE-47DD-BEFB-612A47753FEF}"/>
+    <hyperlink ref="E62" r:id="rId118" display="https://launchschool.com/exercises/f296c1a3" xr:uid="{4AD80694-F387-4C48-A9BE-3ED96EB813A4}"/>
+    <hyperlink ref="E63" r:id="rId119" display="https://launchschool.com/exercises/ef2226a5" xr:uid="{1432CEC0-9B12-4B5E-BF8F-4C9164989BF6}"/>
+    <hyperlink ref="E64" r:id="rId120" display="https://launchschool.com/exercises/7b242f41" xr:uid="{82D655AE-4081-469D-9066-283907746CFB}"/>
+    <hyperlink ref="E65" r:id="rId121" display="https://launchschool.com/exercises/7b713134" xr:uid="{D9CF4EA5-09B7-40E6-B2F4-4411F0BD1CF1}"/>
+    <hyperlink ref="E66" r:id="rId122" display="https://launchschool.com/exercises/87168506" xr:uid="{99F739F9-2C35-4D08-8ACF-06D09F49212B}"/>
+    <hyperlink ref="E67" r:id="rId123" display="https://launchschool.com/exercises/0c1f09ff" xr:uid="{394F0CD8-7E7B-43D1-B3E7-916181ACD1E4}"/>
+    <hyperlink ref="E68" r:id="rId124" display="https://launchschool.com/exercises/693f3373" xr:uid="{EC04E272-74B5-482F-A08B-11A337DF1523}"/>
+    <hyperlink ref="E69" r:id="rId125" display="https://launchschool.com/exercises/ee03c988" xr:uid="{4F8C1298-8895-43C5-B1CA-EE3284D5B123}"/>
+    <hyperlink ref="E70" r:id="rId126" display="https://launchschool.com/exercises/aabd5d59" xr:uid="{DC04F8CF-42B6-494A-B4DF-000CEAE09B9B}"/>
+    <hyperlink ref="E71" r:id="rId127" display="https://launchschool.com/exercises/be610ed0" xr:uid="{F8EA39A8-ED93-4F7B-94C2-C777661EA52D}"/>
+    <hyperlink ref="E74" r:id="rId128" display="https://launchschool.com/exercises/d0f9783f" xr:uid="{9FB549EC-6CD8-42D0-AA14-EE571924FB18}"/>
+    <hyperlink ref="E75" r:id="rId129" display="https://launchschool.com/exercises/c610de82" xr:uid="{A4E24A99-49D7-4A90-9003-172258571C27}"/>
+    <hyperlink ref="E76" r:id="rId130" display="https://launchschool.com/exercises/a04eaf49" xr:uid="{F683A174-691E-4067-AB8E-2863F2AB0CB6}"/>
+    <hyperlink ref="E77" r:id="rId131" display="https://launchschool.com/exercises/1fcae291" xr:uid="{8B8D523C-8BB2-482C-AEF2-EE950C05BD5B}"/>
+    <hyperlink ref="E78" r:id="rId132" display="https://launchschool.com/exercises/4b24c3b4" xr:uid="{048EBE40-FDC7-418E-9F78-EAD7EE3FBDE5}"/>
+    <hyperlink ref="E79" r:id="rId133" display="https://launchschool.com/exercises/e4b17f84" xr:uid="{308BD7F3-A0C4-45B4-825D-4673BA42B6FA}"/>
+    <hyperlink ref="E80" r:id="rId134" display="https://launchschool.com/exercises/e50996f7" xr:uid="{21377828-AF3D-4EE2-A164-84A50C61ADE5}"/>
+    <hyperlink ref="E81" r:id="rId135" display="https://launchschool.com/exercises/f9f73e12" xr:uid="{B8FBEC98-93EC-4218-B418-17E18CB13E34}"/>
+    <hyperlink ref="E82" r:id="rId136" display="https://launchschool.com/exercises/9bb05e87" xr:uid="{4E3E2B42-E5D1-478A-87E4-7A475D345B7F}"/>
+    <hyperlink ref="E83" r:id="rId137" display="https://launchschool.com/exercises/a1938086" xr:uid="{4744FBDF-C7A7-4038-B399-8F0AECEFA0AC}"/>
+    <hyperlink ref="E86" r:id="rId138" display="https://launchschool.com/exercises/e230558f" xr:uid="{E371BC35-41DD-4139-AE08-15654547C72A}"/>
+    <hyperlink ref="E87" r:id="rId139" display="https://launchschool.com/exercises/14619568" xr:uid="{18A7B3F6-F56C-4D8F-9765-6AA3929BB747}"/>
+    <hyperlink ref="E88" r:id="rId140" display="https://launchschool.com/exercises/22822052" xr:uid="{5222C098-B3D5-4344-B95F-C89D2521FA46}"/>
+    <hyperlink ref="E89" r:id="rId141" display="https://launchschool.com/exercises/2908a93d" xr:uid="{5A19861A-17D3-4A50-B626-9BCF59944F95}"/>
+    <hyperlink ref="E90" r:id="rId142" display="https://launchschool.com/exercises/a43d46df" xr:uid="{A799FB07-2F0F-462D-873D-2C445C24BCF6}"/>
+    <hyperlink ref="E91" r:id="rId143" display="https://launchschool.com/exercises/01e60ed0" xr:uid="{B1CE455A-F5E9-4051-A97A-57024467E616}"/>
+    <hyperlink ref="E92" r:id="rId144" display="https://launchschool.com/exercises/05ac9b2b" xr:uid="{F1986F7C-BB99-4226-9D5B-424E3FB8F527}"/>
+    <hyperlink ref="E93" r:id="rId145" display="https://launchschool.com/exercises/c7952581" xr:uid="{BA1EEC6B-EFB9-4118-8DFB-65ED1FFE4136}"/>
+    <hyperlink ref="E94" r:id="rId146" display="https://launchschool.com/exercises/09ae29c5" xr:uid="{A52E6CA5-D78E-4404-9F81-BE6E8558A1F5}"/>
+    <hyperlink ref="E95" r:id="rId147" display="https://launchschool.com/exercises/d1b5ac33" xr:uid="{E6C17D03-4380-443D-B134-841388456511}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId141"/>
+  <pageSetup orientation="portrait" r:id="rId148"/>
 </worksheet>
 </file>
--- a/File Naming Tool.xlsx
+++ b/File Naming Tool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Google Drive\LaunchSchool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Google Drive\LS\LaunchSchool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34F6A9D-3F4C-446A-A8BE-65CF01C8CB62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE800242-4B8A-4B48-8BF1-B5D21B575719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="4910" windowWidth="17330" windowHeight="11450" xr2:uid="{C3B8B670-4DBA-4CAF-91B9-F79D6235264A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{C3B8B670-4DBA-4CAF-91B9-F79D6235264A}"/>
   </bookViews>
   <sheets>
     <sheet name="RB101 Small Problems" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="34">
   <si>
     <t>1_</t>
   </si>
@@ -101,157 +101,40 @@
     <t>Debugging</t>
   </si>
   <si>
-    <t>Enumerable Class Creation</t>
-  </si>
-  <si>
     <t>Easy Testing</t>
   </si>
   <si>
     <t>Medium 2: Testing</t>
   </si>
   <si>
-    <t>Optional Blocks</t>
-  </si>
-  <si>
-    <t>Find Missing Numbers</t>
-  </si>
-  <si>
-    <t>Divisors</t>
-  </si>
-  <si>
-    <t>Encrypted Pioneers</t>
-  </si>
-  <si>
-    <t>Iterators: True for Any?</t>
-  </si>
-  <si>
-    <t>Iterators: True for All?</t>
-  </si>
-  <si>
-    <t>Iterators: True for None?</t>
-  </si>
-  <si>
-    <t>Iterators: True for One?</t>
-  </si>
-  <si>
-    <t>Count Items</t>
-  </si>
-  <si>
-    <t>From-To-Step Sequence Generator</t>
-  </si>
-  <si>
-    <t>Zipper</t>
-  </si>
-  <si>
-    <t>map</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>drop_while</t>
-  </si>
-  <si>
-    <t>each_with_index</t>
-  </si>
-  <si>
-    <t>each_with_object</t>
-  </si>
-  <si>
-    <t>max_by</t>
-  </si>
-  <si>
-    <t>each_cons (Part 1)</t>
-  </si>
-  <si>
-    <t>each_cons (Part 2)</t>
-  </si>
-  <si>
-    <t>Boolean Assertions</t>
-  </si>
-  <si>
-    <t>Equality Assertions</t>
-  </si>
-  <si>
-    <t>Nil Assertions</t>
-  </si>
-  <si>
-    <t>Empty Object Assertions</t>
-  </si>
-  <si>
-    <t>Included Object Assertions</t>
-  </si>
-  <si>
-    <t>Exception Assertions</t>
-  </si>
-  <si>
-    <t>Type Assertions</t>
-  </si>
-  <si>
-    <t>Kind Assertions</t>
-  </si>
-  <si>
-    <t>Same Object Assertions</t>
-  </si>
-  <si>
-    <t>Refutations</t>
-  </si>
-  <si>
-    <t>Listening Device</t>
-  </si>
-  <si>
-    <t>Text Analyzer - Sandwich Code</t>
-  </si>
-  <si>
-    <t>Passing Parameters Part 1</t>
-  </si>
-  <si>
-    <t>Passing Parameters Part 2</t>
-  </si>
-  <si>
-    <t>Passing Parameters Part 3</t>
-  </si>
-  <si>
-    <t>Method to Proc</t>
-  </si>
-  <si>
-    <t>Bubble Sort with Blocks</t>
-  </si>
-  <si>
-    <t>Classes to Test - Cash Register and Transaction</t>
-  </si>
-  <si>
-    <t>Setup the Test Class - Cash Register</t>
-  </si>
-  <si>
-    <t>Test Accept Money Method - Cash Register</t>
-  </si>
-  <si>
-    <t>Test Change Method - Cash Register</t>
-  </si>
-  <si>
-    <t>Test Give Receipt Method - Cash Register</t>
-  </si>
-  <si>
-    <t>Test Prompt For Payment Method- Transaction</t>
-  </si>
-  <si>
-    <t>Alter Prompt For Payment Method - Transaction</t>
-  </si>
-  <si>
-    <t>Swap Letters Sample Text and Starter File</t>
-  </si>
-  <si>
-    <t>Test swap method - Text</t>
-  </si>
-  <si>
-    <t>Test word_count method - Text</t>
-  </si>
-  <si>
-    <t>Internal vs External Iterators</t>
-  </si>
-  <si>
-    <t>Exploring Procs, Lambdas, and Blocks: Definition and Arity</t>
+    <t>Create a Database</t>
+  </si>
+  <si>
+    <t>Create a Table</t>
+  </si>
+  <si>
+    <t>Insert Data</t>
+  </si>
+  <si>
+    <t>Select Data</t>
+  </si>
+  <si>
+    <t>WHERE Clause</t>
+  </si>
+  <si>
+    <t>Update Data</t>
+  </si>
+  <si>
+    <t>Delete Data</t>
+  </si>
+  <si>
+    <t>Add Constraint</t>
+  </si>
+  <si>
+    <t>Drop Table</t>
+  </si>
+  <si>
+    <t>Drop Database</t>
   </si>
 </sst>
 </file>
@@ -664,20 +547,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6CD41F-381F-429B-BA06-5048AE13F42A}">
   <dimension ref="A2:F168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -692,14 +575,14 @@
         <v>0</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="str">
-        <f>D2&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E2," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
-        <v>1_Enumerable_Class_Creation.rb</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+        <f>D2&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E2," ","_"),"?",""),"!",""),"(",""),")","")&amp;".sql"</f>
+        <v>1_Create_a_Database.sql</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>1</v>
       </c>
@@ -707,23 +590,23 @@
         <v>25</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F12" si="0">D3&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E3," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
-        <v>2_Optional_Blocks.rb</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+        <f t="shared" ref="F3:F12" si="0">D3&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E3," ","_"),"?",""),"!",""),"(",""),")","")&amp;".sql"</f>
+        <v>2_Create_a_Table.sql</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
-        <v>3_Find_Missing_Numbers.rb</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3_Insert_Data.sql</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>3</v>
       </c>
@@ -732,46 +615,46 @@
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>4_Divisors.rb</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4_Select_Data.sql</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>5_Encrypted_Pioneers.rb</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5_WHERE_Clause.sql</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>6_Iterators:_True_for_Any.rb</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6_Update_Data.sql</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>7_Iterators:_True_for_All.rb</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7_Delete_Data.sql</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>7</v>
       </c>
@@ -780,22 +663,22 @@
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>8_Iterators:_True_for_None.rb</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8_Add_Constraint.sql</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>9_Iterators:_True_for_One.rb</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9_Drop_Table.sql</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>9</v>
       </c>
@@ -804,20 +687,20 @@
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>10_Count_Items.rb</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10_Drop_Database.sql</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>11_.rb</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+        <v>11_.sql</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -831,123 +714,103 @@
       <c r="D14" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" t="str">
         <f t="shared" ref="F14:F24" si="1">D14&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E14," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
-        <v>1_From-To-Step_Sequence_Generator.rb</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1_.rb</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
-        <v>2_Zipper.rb</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2_.rb</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="E16" s="1"/>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>3_map.rb</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3_.rb</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="E17" s="1"/>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
-        <v>4_count.rb</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4_.rb</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" t="str">
         <f t="shared" si="1"/>
-        <v>5_drop_while.rb</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5_.rb</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="E19" s="1"/>
       <c r="F19" t="str">
         <f t="shared" si="1"/>
-        <v>6_each_with_index.rb</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6_.rb</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="E20" s="1"/>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>7_each_with_object.rb</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7_.rb</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
-        <v>8_max_by.rb</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8_.rb</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="E22" s="1"/>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>9_each_cons_Part_1.rb</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9_.rb</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>9</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="E23" s="1"/>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>10_each_cons_Part_2.rb</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10_.rb</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>10</v>
       </c>
@@ -957,12 +820,12 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="str">
         <f>A26&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B26,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
@@ -971,123 +834,103 @@
       <c r="D26" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="E26" s="1"/>
       <c r="F26" t="str">
         <f t="shared" ref="F26:F36" si="2">D26&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E26," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
-        <v>1_Boolean_Assertions.rb</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1_.rb</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="E27" s="1"/>
       <c r="F27" t="str">
         <f t="shared" si="2"/>
-        <v>2_Equality_Assertions.rb</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2_.rb</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="E28" s="1"/>
       <c r="F28" t="str">
         <f t="shared" si="2"/>
-        <v>3_Nil_Assertions.rb</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3_.rb</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="E29" s="1"/>
       <c r="F29" t="str">
         <f t="shared" si="2"/>
-        <v>4_Empty_Object_Assertions.rb</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4_.rb</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>48</v>
-      </c>
+      <c r="E30" s="3"/>
       <c r="F30" t="str">
         <f t="shared" si="2"/>
-        <v>5_Included_Object_Assertions.rb</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5_.rb</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="E31" s="1"/>
       <c r="F31" t="str">
         <f t="shared" si="2"/>
-        <v>6_Exception_Assertions.rb</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6_.rb</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="E32" s="1"/>
       <c r="F32" t="str">
         <f t="shared" si="2"/>
-        <v>7_Type_Assertions.rb</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7_.rb</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="E33" s="1"/>
       <c r="F33" t="str">
         <f t="shared" si="2"/>
-        <v>8_Kind_Assertions.rb</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8_.rb</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="F34" t="str">
         <f t="shared" si="2"/>
-        <v>9_Same_Object_Assertions.rb</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9_.rb</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>9</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="E35" s="1"/>
       <c r="F35" t="str">
         <f t="shared" si="2"/>
-        <v>10_Refutations.rb</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10_.rb</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>10</v>
       </c>
@@ -1097,7 +940,7 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>3</v>
       </c>
@@ -1111,87 +954,73 @@
       <c r="D38" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="E38" s="1"/>
       <c r="F38" t="str">
         <f t="shared" ref="F38:F48" si="3">D38&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E38," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
-        <v>1_Listening_Device.rb</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1_.rb</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="E39" s="1"/>
       <c r="F39" t="str">
         <f t="shared" si="3"/>
-        <v>2_Text_Analyzer_-_Sandwich_Code.rb</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2_.rb</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="E40" s="1"/>
       <c r="F40" t="str">
         <f t="shared" si="3"/>
-        <v>3_Passing_Parameters_Part_1.rb</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3_.rb</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="E41" s="1"/>
       <c r="F41" t="str">
         <f t="shared" si="3"/>
-        <v>4_Passing_Parameters_Part_2.rb</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4_.rb</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="E42" s="1"/>
       <c r="F42" t="str">
         <f t="shared" si="3"/>
-        <v>5_Passing_Parameters_Part_3.rb</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5_.rb</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="str">
         <f t="shared" si="3"/>
-        <v>6_Method_to_Proc.rb</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6_.rb</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="E44" s="1"/>
       <c r="F44" t="str">
         <f t="shared" si="3"/>
-        <v>7_Bubble_Sort_with_Blocks.rb</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7_.rb</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>7</v>
       </c>
@@ -1201,7 +1030,7 @@
         <v>8_.rb</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>8</v>
       </c>
@@ -1211,7 +1040,7 @@
         <v>9_.rb</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>9</v>
       </c>
@@ -1221,7 +1050,7 @@
         <v>10_.rb</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>10</v>
       </c>
@@ -1231,12 +1060,12 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>4</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" t="str">
         <f>A50&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(B50,":","")," ","_"),"?",""),"!",""),"(",""),")","")</f>
@@ -1245,123 +1074,103 @@
       <c r="D50" t="s">
         <v>0</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="E50" s="1"/>
       <c r="F50" t="str">
         <f t="shared" ref="F50:F60" si="4">D50&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E50," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
-        <v>1_Classes_to_Test_-_Cash_Register_and_Transaction.rb</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1_.rb</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>1</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="E51" s="1"/>
       <c r="F51" t="str">
         <f t="shared" si="4"/>
-        <v>2_Setup_the_Test_Class_-_Cash_Register.rb</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2_.rb</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="E52" s="1"/>
       <c r="F52" t="str">
         <f t="shared" si="4"/>
-        <v>3_Test_Accept_Money_Method_-_Cash_Register.rb</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+        <v>3_.rb</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>3</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="E53" s="1"/>
       <c r="F53" t="str">
         <f t="shared" si="4"/>
-        <v>4_Test_Change_Method_-_Cash_Register.rb</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+        <v>4_.rb</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>4</v>
       </c>
-      <c r="E54" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="E54" s="1"/>
       <c r="F54" t="str">
         <f t="shared" si="4"/>
-        <v>5_Test_Give_Receipt_Method_-_Cash_Register.rb</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+        <v>5_.rb</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="E55" s="1"/>
       <c r="F55" t="str">
         <f t="shared" si="4"/>
-        <v>6_Test_Prompt_For_Payment_Method-_Transaction.rb</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+        <v>6_.rb</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>6</v>
       </c>
-      <c r="E56" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="E56" s="1"/>
       <c r="F56" t="str">
         <f t="shared" si="4"/>
-        <v>7_Alter_Prompt_For_Payment_Method_-_Transaction.rb</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+        <v>7_.rb</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>68</v>
-      </c>
+      <c r="E57" s="1"/>
       <c r="F57" t="str">
         <f t="shared" si="4"/>
-        <v>8_Swap_Letters_Sample_Text_and_Starter_File.rb</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+        <v>8_.rb</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="E58" s="1"/>
       <c r="F58" t="str">
         <f t="shared" si="4"/>
-        <v>9_Test_swap_method_-_Text.rb</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+        <v>9_.rb</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>70</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" t="str">
         <f t="shared" si="4"/>
-        <v>10_Test_word_count_method_-_Text.rb</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+        <v>10_.rb</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>10</v>
       </c>
@@ -1371,7 +1180,7 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1385,27 +1194,23 @@
       <c r="D62" t="s">
         <v>0</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="E62" s="1"/>
       <c r="F62" t="str">
         <f t="shared" ref="F62:F72" si="5">D62&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E62," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
-        <v>1_Internal_vs_External_Iterators.rb</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1_.rb</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
         <v>1</v>
       </c>
-      <c r="E63" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="E63" s="1"/>
       <c r="F63" t="str">
         <f t="shared" si="5"/>
-        <v>2_Exploring_Procs,_Lambdas,_and_Blocks:_Definition_and_Arity.rb</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2_.rb</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>2</v>
       </c>
@@ -1415,7 +1220,7 @@
         <v>3_.rb</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>3</v>
       </c>
@@ -1425,7 +1230,7 @@
         <v>4_.rb</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
         <v>4</v>
       </c>
@@ -1435,7 +1240,7 @@
         <v>5_.rb</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>5</v>
       </c>
@@ -1445,7 +1250,7 @@
         <v>6_.rb</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>6</v>
       </c>
@@ -1455,7 +1260,7 @@
         <v>7_.rb</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +1270,7 @@
         <v>8_.rb</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
         <v>8</v>
       </c>
@@ -1475,7 +1280,7 @@
         <v>9_.rb</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>9</v>
       </c>
@@ -1485,7 +1290,7 @@
         <v>10_.rb</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
         <v>10</v>
       </c>
@@ -1495,7 +1300,7 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -1509,27 +1314,23 @@
       <c r="D74" t="s">
         <v>0</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>71</v>
-      </c>
+      <c r="E74" s="1"/>
       <c r="F74" t="str">
         <f t="shared" ref="F74:F84" si="6">D74&amp;SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E74," ","_"),"?",""),"!",""),"(",""),")","")&amp;".rb"</f>
-        <v>1_Internal_vs_External_Iterators.rb</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+        <v>1_.rb</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>1</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="E75" s="1"/>
       <c r="F75" t="str">
         <f t="shared" si="6"/>
-        <v>2_Exploring_Procs,_Lambdas,_and_Blocks:_Definition_and_Arity.rb</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2_.rb</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>2</v>
       </c>
@@ -1539,7 +1340,7 @@
         <v>3_.rb</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
         <v>3</v>
       </c>
@@ -1549,7 +1350,7 @@
         <v>4_.rb</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>4</v>
       </c>
@@ -1559,7 +1360,7 @@
         <v>5_.rb</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
         <v>5</v>
       </c>
@@ -1569,7 +1370,7 @@
         <v>6_.rb</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>6</v>
       </c>
@@ -1579,7 +1380,7 @@
         <v>7_.rb</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>7</v>
       </c>
@@ -1589,7 +1390,7 @@
         <v>8_.rb</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>8</v>
       </c>
@@ -1599,7 +1400,7 @@
         <v>9_.rb</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>9</v>
       </c>
@@ -1609,7 +1410,7 @@
         <v>10_.rb</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>10</v>
       </c>
@@ -1619,7 +1420,7 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -1639,7 +1440,7 @@
         <v>1_.rb</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
         <v>1</v>
       </c>
@@ -1649,7 +1450,7 @@
         <v>2_.rb</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
         <v>2</v>
       </c>
@@ -1659,7 +1460,7 @@
         <v>3_.rb</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>3</v>
       </c>
@@ -1669,7 +1470,7 @@
         <v>4_.rb</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1480,7 @@
         <v>5_.rb</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>5</v>
       </c>
@@ -1689,7 +1490,7 @@
         <v>6_.rb</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
         <v>6</v>
       </c>
@@ -1699,7 +1500,7 @@
         <v>7_.rb</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>7</v>
       </c>
@@ -1709,7 +1510,7 @@
         <v>8_.rb</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
         <v>8</v>
       </c>
@@ -1719,7 +1520,7 @@
         <v>9_.rb</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
         <v>9</v>
       </c>
@@ -1729,7 +1530,7 @@
         <v>10_.rb</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
         <v>10</v>
       </c>
@@ -1739,8 +1540,8 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="98" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -1760,7 +1561,7 @@
         <v>1_.rb</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>1</v>
       </c>
@@ -1770,7 +1571,7 @@
         <v>2_.rb</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>2</v>
       </c>
@@ -1780,7 +1581,7 @@
         <v>3_.rb</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>3</v>
       </c>
@@ -1790,7 +1591,7 @@
         <v>4_.rb</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>4</v>
       </c>
@@ -1800,7 +1601,7 @@
         <v>5_.rb</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
         <v>5</v>
       </c>
@@ -1810,7 +1611,7 @@
         <v>6_.rb</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>6</v>
       </c>
@@ -1820,7 +1621,7 @@
         <v>7_.rb</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>7</v>
       </c>
@@ -1830,7 +1631,7 @@
         <v>8_.rb</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
         <v>8</v>
       </c>
@@ -1840,7 +1641,7 @@
         <v>9_.rb</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>9</v>
       </c>
@@ -1850,7 +1651,7 @@
         <v>10_.rb</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>10</v>
       </c>
@@ -1860,7 +1661,7 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -1880,7 +1681,7 @@
         <v>1_.rb</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
         <v>1</v>
       </c>
@@ -1890,7 +1691,7 @@
         <v>2_.rb</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>2</v>
       </c>
@@ -1900,7 +1701,7 @@
         <v>3_.rb</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
         <v>3</v>
       </c>
@@ -1910,7 +1711,7 @@
         <v>4_.rb</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>4</v>
       </c>
@@ -1920,7 +1721,7 @@
         <v>5_.rb</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>5</v>
       </c>
@@ -1930,7 +1731,7 @@
         <v>6_.rb</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
         <v>6</v>
       </c>
@@ -1940,7 +1741,7 @@
         <v>7_.rb</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>7</v>
       </c>
@@ -1950,7 +1751,7 @@
         <v>8_.rb</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>8</v>
       </c>
@@ -1960,7 +1761,7 @@
         <v>9_.rb</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
         <v>9</v>
       </c>
@@ -1970,7 +1771,7 @@
         <v>10_.rb</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
         <v>10</v>
       </c>
@@ -1980,7 +1781,7 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +1801,7 @@
         <v>1_.rb</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
         <v>1</v>
       </c>
@@ -2010,7 +1811,7 @@
         <v>2_.rb</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +1821,7 @@
         <v>3_.rb</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>3</v>
       </c>
@@ -2030,7 +1831,7 @@
         <v>4_.rb</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
         <v>4</v>
       </c>
@@ -2040,7 +1841,7 @@
         <v>5_.rb</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>5</v>
       </c>
@@ -2050,7 +1851,7 @@
         <v>6_.rb</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +1861,7 @@
         <v>7_.rb</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
         <v>7</v>
       </c>
@@ -2070,7 +1871,7 @@
         <v>8_.rb</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
         <v>8</v>
       </c>
@@ -2080,7 +1881,7 @@
         <v>9_.rb</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
         <v>9</v>
       </c>
@@ -2090,7 +1891,7 @@
         <v>10_.rb</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
         <v>10</v>
       </c>
@@ -2100,7 +1901,7 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>11</v>
       </c>
@@ -2120,7 +1921,7 @@
         <v>1_.rb</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>1</v>
       </c>
@@ -2130,7 +1931,7 @@
         <v>2_.rb</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
         <v>2</v>
       </c>
@@ -2140,7 +1941,7 @@
         <v>3_.rb</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
         <v>3</v>
       </c>
@@ -2150,7 +1951,7 @@
         <v>4_.rb</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +1961,7 @@
         <v>5_.rb</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>5</v>
       </c>
@@ -2170,7 +1971,7 @@
         <v>6_.rb</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
         <v>6</v>
       </c>
@@ -2180,7 +1981,7 @@
         <v>7_.rb</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
         <v>7</v>
       </c>
@@ -2190,7 +1991,7 @@
         <v>8_.rb</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
         <v>8</v>
       </c>
@@ -2200,7 +2001,7 @@
         <v>9_.rb</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
         <v>9</v>
       </c>
@@ -2210,7 +2011,7 @@
         <v>10_.rb</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
         <v>10</v>
       </c>
@@ -2220,7 +2021,7 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>12</v>
       </c>
@@ -2240,7 +2041,7 @@
         <v>1_.rb</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
         <v>1</v>
       </c>
@@ -2250,7 +2051,7 @@
         <v>2_.rb</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>2</v>
       </c>
@@ -2260,7 +2061,7 @@
         <v>3_.rb</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
         <v>3</v>
       </c>
@@ -2270,7 +2071,7 @@
         <v>4_.rb</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
         <v>4</v>
       </c>
@@ -2280,7 +2081,7 @@
         <v>5_.rb</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>5</v>
       </c>
@@ -2290,7 +2091,7 @@
         <v>6_.rb</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>6</v>
       </c>
@@ -2300,7 +2101,7 @@
         <v>7_.rb</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>7</v>
       </c>
@@ -2310,7 +2111,7 @@
         <v>8_.rb</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
         <v>8</v>
       </c>
@@ -2320,7 +2121,7 @@
         <v>9_.rb</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
         <v>9</v>
       </c>
@@ -2330,7 +2131,7 @@
         <v>10_.rb</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>10</v>
       </c>
@@ -2340,7 +2141,7 @@
         <v>11_.rb</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>13</v>
       </c>
@@ -2360,7 +2161,7 @@
         <v>1_.rb</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>1</v>
       </c>
@@ -2370,7 +2171,7 @@
         <v>2_.rb</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
         <v>2</v>
       </c>
@@ -2380,7 +2181,7 @@
         <v>3_.rb</v>
       </c>
     </row>
-    <row r="161" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
         <v>3</v>
       </c>
@@ -2390,7 +2191,7 @@
         <v>4_.rb</v>
       </c>
     </row>
-    <row r="162" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D162" t="s">
         <v>4</v>
       </c>
@@ -2400,7 +2201,7 @@
         <v>5_.rb</v>
       </c>
     </row>
-    <row r="163" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
         <v>5</v>
       </c>
@@ -2410,7 +2211,7 @@
         <v>6_.rb</v>
       </c>
     </row>
-    <row r="164" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>6</v>
       </c>
@@ -2420,7 +2221,7 @@
         <v>7_.rb</v>
       </c>
     </row>
-    <row r="165" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
         <v>7</v>
       </c>
@@ -2430,7 +2231,7 @@
         <v>8_.rb</v>
       </c>
     </row>
-    <row r="166" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
         <v>8</v>
       </c>
@@ -2440,7 +2241,7 @@
         <v>9_.rb</v>
       </c>
     </row>
-    <row r="167" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>9</v>
       </c>
@@ -2450,7 +2251,7 @@
         <v>10_.rb</v>
       </c>
     </row>
-    <row r="168" spans="4:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D168" t="s">
         <v>10</v>
       </c>
@@ -2464,57 +2265,23 @@
   <hyperlinks>
     <hyperlink ref="B74" r:id="rId1" display="https://launchschool.com/exercise_sets/e0cc58f8" xr:uid="{A9B2050A-EC3E-439E-902E-401D4004127E}"/>
     <hyperlink ref="B86" r:id="rId2" display="https://launchschool.com/exercise_sets/5e5f2772" xr:uid="{7D876CFD-ACBD-4D15-A3DE-40802E2D0AE3}"/>
-    <hyperlink ref="E2" r:id="rId3" display="https://launchschool.com/exercises/583a1348" xr:uid="{31FD3A49-A0D5-41F3-BD5B-C6D9209A8EE5}"/>
-    <hyperlink ref="B14" r:id="rId4" display="https://launchschool.com/exercise_sets/3ea9ead7" xr:uid="{014E6063-FF67-4595-808A-DD09B5BB4204}"/>
-    <hyperlink ref="B26" r:id="rId5" display="https://launchschool.com/exercise_sets/94a0efb0" xr:uid="{FAF9C4D8-DA94-459C-9D32-69FDA2078EDA}"/>
-    <hyperlink ref="B38" r:id="rId6" display="https://launchschool.com/exercise_sets/f3f8b728" xr:uid="{22ECB839-31BF-4780-B06D-ADA751ACDF16}"/>
-    <hyperlink ref="B50" r:id="rId7" display="https://launchschool.com/exercise_sets/c8bbfe96" xr:uid="{087200F4-776A-4ABC-A307-F3D7DCA533A5}"/>
-    <hyperlink ref="B62" r:id="rId8" display="https://launchschool.com/exercise_sets/10775edd" xr:uid="{0C3CFEC6-0CF6-488F-8AC5-6D6F5917B515}"/>
-    <hyperlink ref="E3" r:id="rId9" display="https://launchschool.com/exercises/1e706bb0" xr:uid="{9F8D57F3-6508-422F-B745-5A2013BBE1D4}"/>
-    <hyperlink ref="E4" r:id="rId10" display="https://launchschool.com/exercises/a0a4a3d4" xr:uid="{A8702A2F-F55A-48F6-8BCC-E710C31A479D}"/>
-    <hyperlink ref="E5" r:id="rId11" display="https://launchschool.com/exercises/8b99f281" xr:uid="{0876D9DF-AF2B-4351-A73C-C39AEDE1B028}"/>
-    <hyperlink ref="E6" r:id="rId12" display="https://launchschool.com/exercises/6990f3dc" xr:uid="{2DE34EAA-F1FA-426D-B1B5-0D59EC0A6B5D}"/>
-    <hyperlink ref="E7" r:id="rId13" display="https://launchschool.com/exercises/944b8310" xr:uid="{E0A7FB3D-C777-4316-A04E-748CB6EDBCAE}"/>
-    <hyperlink ref="E8" r:id="rId14" display="https://launchschool.com/exercises/9c2b1d27" xr:uid="{0CEC0F6A-9F18-4763-A889-87C87DBA3D7F}"/>
-    <hyperlink ref="E9" r:id="rId15" display="https://launchschool.com/exercises/11204cc9" xr:uid="{42109F54-A955-42E0-AC31-A852AA364931}"/>
-    <hyperlink ref="E10" r:id="rId16" display="https://launchschool.com/exercises/ea073d36" xr:uid="{F9734E2A-4A04-4451-8251-D12D62AB14DD}"/>
-    <hyperlink ref="E11" r:id="rId17" display="https://launchschool.com/exercises/1318cb92" xr:uid="{F1433EF6-18E1-45AD-9871-FFD24E85ADDE}"/>
-    <hyperlink ref="E14" r:id="rId18" display="https://launchschool.com/exercises/ec8dd514" xr:uid="{0818C16F-CCBF-41A9-AA6F-E1DC923442B5}"/>
-    <hyperlink ref="E15" r:id="rId19" display="https://launchschool.com/exercises/7c6be14d" xr:uid="{E52205FF-8D3A-4D85-A595-643016174553}"/>
-    <hyperlink ref="E16" r:id="rId20" display="https://launchschool.com/exercises/8341f1f1" xr:uid="{CEF2F9B1-70BB-4542-A267-17EC84029226}"/>
-    <hyperlink ref="E26" r:id="rId21" display="https://launchschool.com/exercises/66216db8" xr:uid="{0BE6025F-1CFD-410D-AC9F-702836B8FFD9}"/>
-    <hyperlink ref="E27" r:id="rId22" display="https://launchschool.com/exercises/d69b88d6" xr:uid="{52369875-4445-423B-8821-16DB41D6D099}"/>
-    <hyperlink ref="E28" r:id="rId23" display="https://launchschool.com/exercises/e1183a98" xr:uid="{F3530559-4EC4-4A54-8843-5B45677A9D3E}"/>
-    <hyperlink ref="E29" r:id="rId24" display="https://launchschool.com/exercises/eaa85d07" xr:uid="{31464AA0-A56C-4243-8FEE-A7CF60C05621}"/>
-    <hyperlink ref="E30" r:id="rId25" display="https://launchschool.com/exercises/12b78daf" xr:uid="{18F45D43-0C29-4D67-9618-7DA29A1B71C6}"/>
-    <hyperlink ref="E31" r:id="rId26" display="https://launchschool.com/exercises/82b73047" xr:uid="{FB86B878-A38B-407A-841D-DC4E03F5C814}"/>
-    <hyperlink ref="E32" r:id="rId27" display="https://launchschool.com/exercises/92e1ef71" xr:uid="{4EBABAFB-B13A-462B-9151-CE15F76351C7}"/>
-    <hyperlink ref="E33" r:id="rId28" display="https://launchschool.com/exercises/098fba0b" xr:uid="{C9BEADA7-815A-4446-B0B6-5EE6B446AF81}"/>
-    <hyperlink ref="E34" r:id="rId29" display="https://launchschool.com/exercises/9eed2942" xr:uid="{05C7FB3F-DF52-4E7E-9992-37F34D28FA90}"/>
-    <hyperlink ref="E35" r:id="rId30" display="https://launchschool.com/exercises/4ac8e502" xr:uid="{F0E547E3-83A1-409E-936C-E6AC39FA72AF}"/>
-    <hyperlink ref="E38" r:id="rId31" display="https://launchschool.com/exercises/56a87411" xr:uid="{CB8BD403-2020-4874-9D69-BF89F51871B4}"/>
-    <hyperlink ref="E39" r:id="rId32" display="https://launchschool.com/exercises/c618c0e4" xr:uid="{A61A2B88-C6F7-4A65-97E7-663107CE70F4}"/>
-    <hyperlink ref="E40" r:id="rId33" display="https://launchschool.com/exercises/c7f39d55" xr:uid="{811D71C6-3D49-4DEB-ABF9-0E2F1F186016}"/>
-    <hyperlink ref="E41" r:id="rId34" display="https://launchschool.com/exercises/8621919c" xr:uid="{649991BB-B44A-4ACD-B764-FC88D7645A51}"/>
-    <hyperlink ref="E42" r:id="rId35" display="https://launchschool.com/exercises/c9181c33" xr:uid="{2579491C-7362-4C65-8F26-21A07F0830B7}"/>
-    <hyperlink ref="E43" r:id="rId36" display="https://launchschool.com/exercises/ecdb2b22" xr:uid="{DC546216-C3DE-4C8F-AD5D-7A62342669C9}"/>
-    <hyperlink ref="E44" r:id="rId37" display="https://launchschool.com/exercises/8a0837d6" xr:uid="{F99ADC73-50EF-4239-A214-40C9A0587ABF}"/>
-    <hyperlink ref="E50" r:id="rId38" display="https://launchschool.com/exercises/0af19f30" xr:uid="{70F52219-8901-4039-A575-27672307F7FD}"/>
-    <hyperlink ref="E51" r:id="rId39" display="https://launchschool.com/exercises/82de3f03" xr:uid="{3CE11E25-CF40-4C4F-90DF-8BECC89A4CEA}"/>
-    <hyperlink ref="E52" r:id="rId40" display="https://launchschool.com/exercises/acc0412a" xr:uid="{3B2B8E02-6E8F-4E13-894C-80BE39CEEA56}"/>
-    <hyperlink ref="E53" r:id="rId41" display="https://launchschool.com/exercises/4c36c285" xr:uid="{0C963815-4B66-4E03-8465-1CB826596E46}"/>
-    <hyperlink ref="E54" r:id="rId42" display="https://launchschool.com/exercises/8cf7a4e3" xr:uid="{F1BFAEAD-556A-48E0-877D-E6E8D52A1C25}"/>
-    <hyperlink ref="E55" r:id="rId43" display="https://launchschool.com/exercises/64799839" xr:uid="{B4FD0494-A451-423E-9B2B-42E86F8F7503}"/>
-    <hyperlink ref="E56" r:id="rId44" display="https://launchschool.com/exercises/e2b66911" xr:uid="{A2BAAB47-9707-4611-8B7B-A906CD9E0C68}"/>
-    <hyperlink ref="E57" r:id="rId45" display="https://launchschool.com/exercises/20ec4425" xr:uid="{8936B52F-BE06-49B8-8E26-138C0694530D}"/>
-    <hyperlink ref="E58" r:id="rId46" display="https://launchschool.com/exercises/82427de8" xr:uid="{AEEE429C-BDDF-4D12-A360-EF459DE89ABE}"/>
-    <hyperlink ref="E59" r:id="rId47" display="https://launchschool.com/exercises/530e4c03" xr:uid="{52D928F4-102B-4130-A073-ABA1ABE552C0}"/>
-    <hyperlink ref="E74" r:id="rId48" display="https://launchschool.com/exercises/0b6294cb" xr:uid="{5DF58641-D338-4B99-A185-F478C79CB72F}"/>
-    <hyperlink ref="E75" r:id="rId49" display="https://launchschool.com/exercises/753d0323" xr:uid="{B49880D9-DEE5-4A1A-B59B-ED39BA336E3C}"/>
-    <hyperlink ref="E62" r:id="rId50" display="https://launchschool.com/exercises/0b6294cb" xr:uid="{B88383EA-7B28-4F78-93DB-BBA56AD57844}"/>
-    <hyperlink ref="E63" r:id="rId51" display="https://launchschool.com/exercises/753d0323" xr:uid="{35B02EFD-68F6-4C57-A14C-57C890C272E3}"/>
+    <hyperlink ref="B14" r:id="rId3" display="https://launchschool.com/exercise_sets/3ea9ead7" xr:uid="{014E6063-FF67-4595-808A-DD09B5BB4204}"/>
+    <hyperlink ref="B26" r:id="rId4" display="https://launchschool.com/exercise_sets/94a0efb0" xr:uid="{FAF9C4D8-DA94-459C-9D32-69FDA2078EDA}"/>
+    <hyperlink ref="B38" r:id="rId5" display="https://launchschool.com/exercise_sets/f3f8b728" xr:uid="{22ECB839-31BF-4780-B06D-ADA751ACDF16}"/>
+    <hyperlink ref="B50" r:id="rId6" display="https://launchschool.com/exercise_sets/c8bbfe96" xr:uid="{087200F4-776A-4ABC-A307-F3D7DCA533A5}"/>
+    <hyperlink ref="B62" r:id="rId7" display="https://launchschool.com/exercise_sets/10775edd" xr:uid="{0C3CFEC6-0CF6-488F-8AC5-6D6F5917B515}"/>
+    <hyperlink ref="E2" r:id="rId8" display="https://launchschool.com/exercises/43313d09" xr:uid="{7FAB21B9-96DD-4EB6-949A-8A6B072931D3}"/>
+    <hyperlink ref="E3" r:id="rId9" display="https://launchschool.com/exercises/2ac78074" xr:uid="{2C8F8C56-BEB7-4E0F-ABC3-07B2484CE9FD}"/>
+    <hyperlink ref="E4" r:id="rId10" display="https://launchschool.com/exercises/b06c9ec4" xr:uid="{52FAD4C9-B7F1-4D69-8314-706AA42833CB}"/>
+    <hyperlink ref="E5" r:id="rId11" display="https://launchschool.com/exercises/35962964" xr:uid="{5A47AD7A-9B85-4CD6-A93F-17F2F7EF9BD0}"/>
+    <hyperlink ref="E6" r:id="rId12" display="https://launchschool.com/exercises/f7ff3f4e" xr:uid="{A4B0D499-861D-436E-A78D-9F60284D571F}"/>
+    <hyperlink ref="E7" r:id="rId13" display="https://launchschool.com/exercises/3b5163ba" xr:uid="{C3609073-9EE5-4582-A00F-6F64E6E81A10}"/>
+    <hyperlink ref="E8" r:id="rId14" display="https://launchschool.com/exercises/722ac41c" xr:uid="{278113DD-EA76-4476-8760-062D090E856B}"/>
+    <hyperlink ref="E9" r:id="rId15" display="https://launchschool.com/exercises/d176489a" xr:uid="{D9F9E070-64F1-4ECB-8741-B856F2F78530}"/>
+    <hyperlink ref="E10" r:id="rId16" display="https://launchschool.com/exercises/c5e3018b" xr:uid="{B3FD7AAD-5A88-444D-9FE9-156DD5880E10}"/>
+    <hyperlink ref="E11" r:id="rId17" display="https://launchschool.com/exercises/f700f999" xr:uid="{24651472-1CAE-465E-B868-187EA28B1C3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>